--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IntegratedEnergyResourcePlanning-2024_2025_winter/Shared Documents/2024_2025_winter/Lab/2023.12.06 - Very Simple Times Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaud\Downloads\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{211A4542-72C8-49B5-A803-BC7CE3750A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974363EB-5C15-4195-B1A5-04C140721549}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE483A24-B04F-4B27-87A9-B4A29088F61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -28,6 +28,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -821,7 +824,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="133">
+  <si>
+    <t>Define commodities</t>
+  </si>
+  <si>
+    <t>Remember to Leave 1 Row/Column empty around each Veda Table</t>
+  </si>
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -850,9 +859,84 @@
     <t>Ctype</t>
   </si>
   <si>
+    <t>\I: Commodity Set</t>
+  </si>
+  <si>
+    <t>Commodity Name</t>
+  </si>
+  <si>
+    <t>Commodity Description</t>
+  </si>
+  <si>
+    <t>Sense of Balance Equation</t>
+  </si>
+  <si>
+    <t>Timeslice Level</t>
+  </si>
+  <si>
+    <t>Peak Monitoring</t>
+  </si>
+  <si>
+    <t>Electricity Indicator (CHP)</t>
+  </si>
+  <si>
     <t>NRG</t>
   </si>
   <si>
+    <t>BROWN_COAL</t>
+  </si>
+  <si>
+    <t>Brown Coal</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>ELEC_HV</t>
+  </si>
+  <si>
+    <t>High Voltage Electricity</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>Available Commodity Sets</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>Emission</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Define processes</t>
+  </si>
+  <si>
     <t>~FI_Process</t>
   </si>
   <si>
@@ -883,15 +967,120 @@
     <t>Vintage</t>
   </si>
   <si>
+    <t>\I: Process Set</t>
+  </si>
+  <si>
+    <t>Region Name</t>
+  </si>
+  <si>
+    <t>Technology Name</t>
+  </si>
+  <si>
+    <t>Technology Description</t>
+  </si>
+  <si>
+    <t>Activity Unit</t>
+  </si>
+  <si>
+    <t>Capacity Unit</t>
+  </si>
+  <si>
+    <t>Primary Commodity Froup</t>
+  </si>
+  <si>
+    <t>Vintage Tracking</t>
+  </si>
+  <si>
+    <t>ELE</t>
+  </si>
+  <si>
+    <t>ELE_EX_BELCHATOW</t>
+  </si>
+  <si>
+    <t>Belchatow Power Plant</t>
+  </si>
+  <si>
+    <t>GWe</t>
+  </si>
+  <si>
     <t>MIN</t>
   </si>
   <si>
+    <t>MIN_EX_BROWN_COAL</t>
+  </si>
+  <si>
+    <t>Brown Coal Mine</t>
+  </si>
+  <si>
+    <t>Pja</t>
+  </si>
+  <si>
+    <t>Power Plant (Electricity Only)</t>
+  </si>
+  <si>
+    <t>CHP</t>
+  </si>
+  <si>
+    <t>Combined Heat &amp; Power Plant</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>Timeslice Storage</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Generic Process</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Demand Process</t>
+  </si>
+  <si>
+    <t>Should have commodity of type DEM as an output</t>
+  </si>
+  <si>
     <t>IMP</t>
   </si>
   <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Commodity only at Output</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Eksport</t>
+  </si>
+  <si>
+    <t>Commodity only at Input</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>HPL</t>
+  </si>
+  <si>
+    <t>Heat Only Plant</t>
+  </si>
+  <si>
+    <t>Primary energy supply</t>
+  </si>
+  <si>
     <t>~FI_T</t>
   </si>
   <si>
+    <t>*TechDesc</t>
+  </si>
+  <si>
     <t>Comm-OUT</t>
   </si>
   <si>
@@ -901,307 +1090,139 @@
     <t>ACT_BND</t>
   </si>
   <si>
-    <t>Primary energy supply</t>
-  </si>
-  <si>
-    <t>ENV</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>MAT</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Emission</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Financial</t>
-  </si>
-  <si>
-    <t>\I: Commodity Set</t>
-  </si>
-  <si>
-    <t>Commodity Name</t>
-  </si>
-  <si>
-    <t>Commodity Description</t>
-  </si>
-  <si>
-    <t>Sense of Balance Equation</t>
-  </si>
-  <si>
-    <t>Timeslice Level</t>
-  </si>
-  <si>
-    <t>Peak Monitoring</t>
-  </si>
-  <si>
-    <t>Electricity Indicator (CHP)</t>
-  </si>
-  <si>
-    <t>Define processes</t>
-  </si>
-  <si>
-    <t>Define commodities</t>
-  </si>
-  <si>
-    <t>ELE</t>
-  </si>
-  <si>
-    <t>CHP</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>HPL</t>
-  </si>
-  <si>
-    <t>\I: Process Set</t>
-  </si>
-  <si>
-    <t>Region Name</t>
-  </si>
-  <si>
-    <t>Technology Name</t>
-  </si>
-  <si>
-    <t>Technology Description</t>
-  </si>
-  <si>
-    <t>Activity Unit</t>
-  </si>
-  <si>
-    <t>Capacity Unit</t>
-  </si>
-  <si>
-    <t>Primary Commodity Froup</t>
-  </si>
-  <si>
-    <t>Vintage Tracking</t>
-  </si>
-  <si>
-    <t>Power Plant (Electricity Only)</t>
-  </si>
-  <si>
-    <t>Combined Heat &amp; Power Plant</t>
-  </si>
-  <si>
-    <t>Timeslice Storage</t>
-  </si>
-  <si>
-    <t>Generic Process</t>
-  </si>
-  <si>
-    <t>Demand Process</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Eksport</t>
-  </si>
-  <si>
-    <t>Mining</t>
-  </si>
-  <si>
-    <t>Heat Only Plant</t>
-  </si>
-  <si>
-    <t>Commodity only at Output</t>
-  </si>
-  <si>
-    <t>Commodity only at Input</t>
-  </si>
-  <si>
     <t>\I: Technology Name</t>
   </si>
   <si>
     <t>Output Commodity</t>
   </si>
   <si>
+    <t>Extraction or Import cost</t>
+  </si>
+  <si>
     <t>Annual Activity Bound</t>
   </si>
   <si>
+    <t>\I: Unit</t>
+  </si>
+  <si>
+    <t>PLN/PJ</t>
+  </si>
+  <si>
+    <t>PJ/a</t>
+  </si>
+  <si>
+    <t>Power Plants - Energy Transformation</t>
+  </si>
+  <si>
+    <t>Comm-IN</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>CAP2ACT</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>FIXOM</t>
+  </si>
+  <si>
+    <t>VAROM</t>
+  </si>
+  <si>
+    <t>Input Commodity</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Efficiency (output based)</t>
+  </si>
+  <si>
+    <t>Capacity to Activity Factor</t>
+  </si>
+  <si>
+    <t>Annual Availibility Factor</t>
+  </si>
+  <si>
+    <t>Fix Costs O&amp;M</t>
+  </si>
+  <si>
+    <t>Variable Cost O&amp;M</t>
+  </si>
+  <si>
+    <t>PJ output / PJ input</t>
+  </si>
+  <si>
+    <t>PJ / a / GWe</t>
+  </si>
+  <si>
+    <t>hours / 8760 hours</t>
+  </si>
+  <si>
+    <t>PLN / kWe</t>
+  </si>
+  <si>
+    <t>PLN / GJ Activity</t>
+  </si>
+  <si>
+    <t>Demand Technology</t>
+  </si>
+  <si>
+    <t>Final Energy Consumption</t>
+  </si>
+  <si>
+    <t>~FI_T:DEMAND</t>
+  </si>
+  <si>
+    <t>\I: Demand Commodity Name</t>
+  </si>
+  <si>
+    <t>Demand [PJ]</t>
+  </si>
+  <si>
+    <t>Technology Specific Fuel Emission Factors</t>
+  </si>
+  <si>
     <t>~PRCCOMEMI</t>
   </si>
   <si>
+    <t>&lt;- Fuel</t>
+  </si>
+  <si>
+    <t>Fuel2</t>
+  </si>
+  <si>
+    <t>Fuel3 …</t>
+  </si>
+  <si>
     <t>Emission Commodity Name</t>
   </si>
   <si>
-    <t>&lt;- Fuel</t>
-  </si>
-  <si>
-    <t>Fuel2</t>
-  </si>
-  <si>
-    <t>Fuel3 …</t>
-  </si>
-  <si>
-    <t>Technology Specific Fuel Emission Factors</t>
-  </si>
-  <si>
     <t>Emission Factor</t>
   </si>
   <si>
-    <t>*TechDesc</t>
-  </si>
-  <si>
-    <t>Comm-IN</t>
-  </si>
-  <si>
-    <t>EFF</t>
-  </si>
-  <si>
-    <t>CAP2ACT</t>
-  </si>
-  <si>
-    <t>STOCK</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>FIXOM</t>
-  </si>
-  <si>
-    <t>VAROM</t>
-  </si>
-  <si>
-    <t>Input Commodity</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Efficiency (output based)</t>
-  </si>
-  <si>
-    <t>Capacity to Activity Factor</t>
-  </si>
-  <si>
-    <t>Annual Availibility Factor</t>
-  </si>
-  <si>
-    <t>Fix Costs O&amp;M</t>
-  </si>
-  <si>
-    <t>Variable Cost O&amp;M</t>
-  </si>
-  <si>
-    <t>Power Plants - Energy Transformation</t>
-  </si>
-  <si>
-    <t>~FI_T:DEMAND</t>
-  </si>
-  <si>
-    <t>\I: Demand Commodity Name</t>
-  </si>
-  <si>
-    <t>Final Energy Consumption</t>
-  </si>
-  <si>
-    <t>Demand Technology</t>
-  </si>
-  <si>
-    <t>Available Commodity Sets</t>
-  </si>
-  <si>
-    <t>Remember to Leave 1 Row/Column empty around each Veda Table</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>BROWN_COAL</t>
-  </si>
-  <si>
-    <t>GWe</t>
-  </si>
-  <si>
-    <t>Demand [PJ]</t>
-  </si>
-  <si>
-    <t>Pja</t>
-  </si>
-  <si>
-    <t>Should have commodity of type DEM as an output</t>
-  </si>
-  <si>
-    <t>\I: Unit</t>
-  </si>
-  <si>
-    <t>PLN/PJ</t>
-  </si>
-  <si>
-    <t>PJ/a</t>
-  </si>
-  <si>
-    <t>Extraction or Import cost</t>
-  </si>
-  <si>
-    <t>ELE_EX_BELCHATOW</t>
-  </si>
-  <si>
-    <t>Belchatow Power Plant</t>
-  </si>
-  <si>
-    <t>MIN_EX_BROWN_COAL</t>
-  </si>
-  <si>
-    <t>Brown Coal Mine</t>
-  </si>
-  <si>
-    <t>ELEC_HV</t>
-  </si>
-  <si>
-    <t>Brown Coal</t>
-  </si>
-  <si>
-    <t>High Voltage Electricity</t>
-  </si>
-  <si>
-    <t>PJ output / PJ input</t>
-  </si>
-  <si>
-    <t>PJ / a / GWe</t>
-  </si>
-  <si>
-    <t>hours / 8760 hours</t>
-  </si>
-  <si>
-    <t>PLN / kWe</t>
-  </si>
-  <si>
-    <t>PLN / GJ Activity</t>
+    <t>BIOMASS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>ELE_POLANIEC</t>
+  </si>
+  <si>
+    <t>Polaniec Power Plant</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>TWh</t>
   </si>
 </sst>
 </file>
@@ -2437,12 +2458,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
@@ -2500,7 +2517,6 @@
     <xf numFmtId="2" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2510,42 +2526,18 @@
     <xf numFmtId="0" fontId="52" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2588,27 +2580,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2621,69 +2592,215 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2969,7 +3086,6 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
@@ -2977,6 +3093,7 @@
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
     <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
@@ -3535,267 +3652,278 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="58" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="3" style="58" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="58" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
-      <c r="B2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+    <row r="2" spans="1:11" ht="18">
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="117" t="s">
-        <v>102</v>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="123" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.45" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="117"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="D5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="E5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="F5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="G5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="117"/>
+      <c r="H5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="69"/>
+      <c r="K5" s="123"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="117"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="69"/>
+      <c r="K6" s="123"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="117"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="73"/>
+      <c r="G7" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="77"/>
+      <c r="G8" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="123"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="123"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="123"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="123"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="123"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B15" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="122"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B16" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="117"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="117"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="117"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="117"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="117"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="116"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="96" t="s">
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B17" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B18" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="89" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="97" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" s="88" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="98" t="s">
+      <c r="C19" s="88" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="97" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="90" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B20" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3816,275 +3944,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="25" style="58" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="58" customWidth="1"/>
+    <col min="6" max="7" width="10" style="58" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="10" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="48" t="s">
+      <c r="B5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="47.25" customHeight="1">
+      <c r="B6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B6" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="I6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="J6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="49" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="E7" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="49" t="s">
+      <c r="F7" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="H7" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="74" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="B9" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>60</v>
+      <c r="B16" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>61</v>
+      <c r="B17" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>62</v>
+      <c r="B18" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>63</v>
+      <c r="B19" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>110</v>
+      <c r="B20" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>69</v>
+      <c r="B21" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>70</v>
+      <c r="B22" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>69</v>
+      <c r="B23" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="98" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>68</v>
+      <c r="B24" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4100,7 +4241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4116,222 +4257,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="18">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="D4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="A4" s="1"/>
+      <c r="D4" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="112" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="11" t="str">
         <f>SEC_Processes!D8</f>
         <v>MIN_EX_BROWN_COAL</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="11" t="str">
         <f>SEC_Processes!E8</f>
         <v>Brown Coal Mine</v>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="14" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>100</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4345,198 +4486,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="58" customWidth="1"/>
+    <col min="5" max="11" width="11.42578125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="104"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="E4" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="E4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="83" t="s">
+      <c r="E5" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="83" t="s">
+      <c r="F5" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="38.25">
+      <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="39" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="114" t="s">
+      <c r="F6" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="25.5">
+      <c r="B7" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="114" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="26.25" thickBot="1">
-      <c r="B7" s="112" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="115" t="s">
-        <v>126</v>
+      <c r="I7" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="62" t="str">
+      <c r="B8" s="111" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_BELCHATOW</v>
       </c>
-      <c r="C8" s="62" t="str">
+      <c r="C8" s="111" t="str">
         <f>SEC_Processes!E7</f>
         <v>Belchatow Power Plant</v>
       </c>
-      <c r="D8" s="85" t="str">
+      <c r="D8" s="112" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="85" t="str">
+      <c r="E8" s="112" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="113">
         <v>6.5</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="113">
         <v>0.3</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="114">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="114">
         <v>1</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="115">
         <v>1</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="114">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
+    <row r="9" spans="2:12">
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="E14" s="113"/>
+      <c r="E14" s="121"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15" s="113"/>
+      <c r="E15" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4549,194 +4691,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="11" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="58"/>
+    <col min="2" max="2" width="17.140625" style="58" customWidth="1"/>
+    <col min="3" max="11" width="11.42578125" style="58" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="E4" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="E4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="83" t="s">
+      <c r="J5" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="38.25">
+      <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="39" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="84" t="s">
-        <v>95</v>
+      <c r="F6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="87"/>
-    </row>
-    <row r="8" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="114"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
     </row>
     <row r="10" spans="2:11" ht="18">
-      <c r="B10" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
+      <c r="B10" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="60" t="s">
-        <v>97</v>
+      <c r="B15" s="108" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="94">
+      <c r="B16" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="53">
         <v>2020</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="53">
         <v>2021</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="54">
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="26.25" thickBot="1">
-      <c r="B17" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="62" t="str">
+    <row r="17" spans="2:7" ht="25.5">
+      <c r="B17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="111" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="112">
         <v>200</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-    </row>
-    <row r="19" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="G18" s="58">
+        <f>+C18/PP!G8</f>
+        <v>666.66666666666674</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4751,7 +4899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -4762,96 +4910,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
-      <c r="B2" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="B2" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="H5" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>78</v>
+      <c r="B5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="H5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="39" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+      <c r="B6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4862,14 +5010,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -4921,8 +5063,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5011,7 +5153,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5020,30 +5162,43 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaud\Downloads\2023.12.06 - Very Simple Times Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE483A24-B04F-4B27-87A9-B4A29088F61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C6C12-A48D-4C27-8681-A8CCA0267EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -27,22 +27,6 @@
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -824,338 +808,374 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="131">
+  <si>
+    <t>~FI_Comm</t>
+  </si>
+  <si>
+    <t>Csets</t>
+  </si>
+  <si>
+    <t>CommName</t>
+  </si>
+  <si>
+    <t>CommDesc</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
+    <t>CTSLvl</t>
+  </si>
+  <si>
+    <t>PeakTS</t>
+  </si>
+  <si>
+    <t>Ctype</t>
+  </si>
+  <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>~FI_Process</t>
+  </si>
+  <si>
+    <t>Sets</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>TechDesc</t>
+  </si>
+  <si>
+    <t>Tact</t>
+  </si>
+  <si>
+    <t>Tcap</t>
+  </si>
+  <si>
+    <t>Tslvl</t>
+  </si>
+  <si>
+    <t>PrimaryCG</t>
+  </si>
+  <si>
+    <t>Vintage</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>~FI_T</t>
+  </si>
+  <si>
+    <t>Comm-OUT</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>Primary energy supply</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Emission</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>\I: Commodity Set</t>
+  </si>
+  <si>
+    <t>Commodity Name</t>
+  </si>
+  <si>
+    <t>Commodity Description</t>
+  </si>
+  <si>
+    <t>Sense of Balance Equation</t>
+  </si>
+  <si>
+    <t>Timeslice Level</t>
+  </si>
+  <si>
+    <t>Peak Monitoring</t>
+  </si>
+  <si>
+    <t>Electricity Indicator (CHP)</t>
+  </si>
+  <si>
+    <t>Define processes</t>
+  </si>
   <si>
     <t>Define commodities</t>
   </si>
   <si>
+    <t>ELE</t>
+  </si>
+  <si>
+    <t>CHP</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>HPL</t>
+  </si>
+  <si>
+    <t>\I: Process Set</t>
+  </si>
+  <si>
+    <t>Region Name</t>
+  </si>
+  <si>
+    <t>Technology Name</t>
+  </si>
+  <si>
+    <t>Technology Description</t>
+  </si>
+  <si>
+    <t>Activity Unit</t>
+  </si>
+  <si>
+    <t>Capacity Unit</t>
+  </si>
+  <si>
+    <t>Primary Commodity Froup</t>
+  </si>
+  <si>
+    <t>Vintage Tracking</t>
+  </si>
+  <si>
+    <t>Power Plant (Electricity Only)</t>
+  </si>
+  <si>
+    <t>Combined Heat &amp; Power Plant</t>
+  </si>
+  <si>
+    <t>Timeslice Storage</t>
+  </si>
+  <si>
+    <t>Generic Process</t>
+  </si>
+  <si>
+    <t>Demand Process</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Eksport</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Heat Only Plant</t>
+  </si>
+  <si>
+    <t>Commodity only at Output</t>
+  </si>
+  <si>
+    <t>Commodity only at Input</t>
+  </si>
+  <si>
+    <t>\I: Technology Name</t>
+  </si>
+  <si>
+    <t>Output Commodity</t>
+  </si>
+  <si>
+    <t>Annual Activity Bound</t>
+  </si>
+  <si>
+    <t>~PRCCOMEMI</t>
+  </si>
+  <si>
+    <t>Emission Commodity Name</t>
+  </si>
+  <si>
+    <t>&lt;- Fuel</t>
+  </si>
+  <si>
+    <t>Fuel2</t>
+  </si>
+  <si>
+    <t>Fuel3 …</t>
+  </si>
+  <si>
+    <t>Technology Specific Fuel Emission Factors</t>
+  </si>
+  <si>
+    <t>Emission Factor</t>
+  </si>
+  <si>
+    <t>*TechDesc</t>
+  </si>
+  <si>
+    <t>Comm-IN</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>CAP2ACT</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>FIXOM</t>
+  </si>
+  <si>
+    <t>VAROM</t>
+  </si>
+  <si>
+    <t>Input Commodity</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Efficiency (output based)</t>
+  </si>
+  <si>
+    <t>Capacity to Activity Factor</t>
+  </si>
+  <si>
+    <t>Annual Availibility Factor</t>
+  </si>
+  <si>
+    <t>Fix Costs O&amp;M</t>
+  </si>
+  <si>
+    <t>Variable Cost O&amp;M</t>
+  </si>
+  <si>
+    <t>Power Plants - Energy Transformation</t>
+  </si>
+  <si>
+    <t>~FI_T:DEMAND</t>
+  </si>
+  <si>
+    <t>\I: Demand Commodity Name</t>
+  </si>
+  <si>
+    <t>Final Energy Consumption</t>
+  </si>
+  <si>
+    <t>Demand Technology</t>
+  </si>
+  <si>
+    <t>Available Commodity Sets</t>
+  </si>
+  <si>
     <t>Remember to Leave 1 Row/Column empty around each Veda Table</t>
   </si>
   <si>
-    <t>~FI_Comm</t>
-  </si>
-  <si>
-    <t>Csets</t>
-  </si>
-  <si>
-    <t>CommName</t>
-  </si>
-  <si>
-    <t>CommDesc</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>LimType</t>
-  </si>
-  <si>
-    <t>CTSLvl</t>
-  </si>
-  <si>
-    <t>PeakTS</t>
-  </si>
-  <si>
-    <t>Ctype</t>
-  </si>
-  <si>
-    <t>\I: Commodity Set</t>
-  </si>
-  <si>
-    <t>Commodity Name</t>
-  </si>
-  <si>
-    <t>Commodity Description</t>
-  </si>
-  <si>
-    <t>Sense of Balance Equation</t>
-  </si>
-  <si>
-    <t>Timeslice Level</t>
-  </si>
-  <si>
-    <t>Peak Monitoring</t>
-  </si>
-  <si>
-    <t>Electricity Indicator (CHP)</t>
-  </si>
-  <si>
-    <t>NRG</t>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
   </si>
   <si>
     <t>BROWN_COAL</t>
   </si>
   <si>
+    <t>GWe</t>
+  </si>
+  <si>
+    <t>Demand [PJ]</t>
+  </si>
+  <si>
+    <t>Pja</t>
+  </si>
+  <si>
+    <t>Should have commodity of type DEM as an output</t>
+  </si>
+  <si>
+    <t>\I: Unit</t>
+  </si>
+  <si>
+    <t>PLN/PJ</t>
+  </si>
+  <si>
+    <t>PJ/a</t>
+  </si>
+  <si>
+    <t>Extraction or Import cost</t>
+  </si>
+  <si>
+    <t>ELE_EX_BELCHATOW</t>
+  </si>
+  <si>
+    <t>Belchatow Power Plant</t>
+  </si>
+  <si>
+    <t>MIN_EX_BROWN_COAL</t>
+  </si>
+  <si>
+    <t>Brown Coal Mine</t>
+  </si>
+  <si>
+    <t>ELEC_HV</t>
+  </si>
+  <si>
     <t>Brown Coal</t>
   </si>
   <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>ELEC_HV</t>
-  </si>
-  <si>
     <t>High Voltage Electricity</t>
   </si>
   <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>Available Commodity Sets</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>ENV</t>
-  </si>
-  <si>
-    <t>Emission</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>MAT</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Financial</t>
-  </si>
-  <si>
-    <t>Define processes</t>
-  </si>
-  <si>
-    <t>~FI_Process</t>
-  </si>
-  <si>
-    <t>Sets</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>TechName</t>
-  </si>
-  <si>
-    <t>TechDesc</t>
-  </si>
-  <si>
-    <t>Tact</t>
-  </si>
-  <si>
-    <t>Tcap</t>
-  </si>
-  <si>
-    <t>Tslvl</t>
-  </si>
-  <si>
-    <t>PrimaryCG</t>
-  </si>
-  <si>
-    <t>Vintage</t>
-  </si>
-  <si>
-    <t>\I: Process Set</t>
-  </si>
-  <si>
-    <t>Region Name</t>
-  </si>
-  <si>
-    <t>Technology Name</t>
-  </si>
-  <si>
-    <t>Technology Description</t>
-  </si>
-  <si>
-    <t>Activity Unit</t>
-  </si>
-  <si>
-    <t>Capacity Unit</t>
-  </si>
-  <si>
-    <t>Primary Commodity Froup</t>
-  </si>
-  <si>
-    <t>Vintage Tracking</t>
-  </si>
-  <si>
-    <t>ELE</t>
-  </si>
-  <si>
-    <t>ELE_EX_BELCHATOW</t>
-  </si>
-  <si>
-    <t>Belchatow Power Plant</t>
-  </si>
-  <si>
-    <t>GWe</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MIN_EX_BROWN_COAL</t>
-  </si>
-  <si>
-    <t>Brown Coal Mine</t>
-  </si>
-  <si>
-    <t>Pja</t>
-  </si>
-  <si>
-    <t>Power Plant (Electricity Only)</t>
-  </si>
-  <si>
-    <t>CHP</t>
-  </si>
-  <si>
-    <t>Combined Heat &amp; Power Plant</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>Timeslice Storage</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>Generic Process</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>Demand Process</t>
-  </si>
-  <si>
-    <t>Should have commodity of type DEM as an output</t>
-  </si>
-  <si>
-    <t>IMP</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Commodity only at Output</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>Eksport</t>
-  </si>
-  <si>
-    <t>Commodity only at Input</t>
-  </si>
-  <si>
-    <t>Mining</t>
-  </si>
-  <si>
-    <t>HPL</t>
-  </si>
-  <si>
-    <t>Heat Only Plant</t>
-  </si>
-  <si>
-    <t>Primary energy supply</t>
-  </si>
-  <si>
-    <t>~FI_T</t>
-  </si>
-  <si>
-    <t>*TechDesc</t>
-  </si>
-  <si>
-    <t>Comm-OUT</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>ACT_BND</t>
-  </si>
-  <si>
-    <t>\I: Technology Name</t>
-  </si>
-  <si>
-    <t>Output Commodity</t>
-  </si>
-  <si>
-    <t>Extraction or Import cost</t>
-  </si>
-  <si>
-    <t>Annual Activity Bound</t>
-  </si>
-  <si>
-    <t>\I: Unit</t>
-  </si>
-  <si>
-    <t>PLN/PJ</t>
-  </si>
-  <si>
-    <t>PJ/a</t>
-  </si>
-  <si>
-    <t>Power Plants - Energy Transformation</t>
-  </si>
-  <si>
-    <t>Comm-IN</t>
-  </si>
-  <si>
-    <t>STOCK</t>
-  </si>
-  <si>
-    <t>EFF</t>
-  </si>
-  <si>
-    <t>CAP2ACT</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>FIXOM</t>
-  </si>
-  <si>
-    <t>VAROM</t>
-  </si>
-  <si>
-    <t>Input Commodity</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Efficiency (output based)</t>
-  </si>
-  <si>
-    <t>Capacity to Activity Factor</t>
-  </si>
-  <si>
-    <t>Annual Availibility Factor</t>
-  </si>
-  <si>
-    <t>Fix Costs O&amp;M</t>
-  </si>
-  <si>
-    <t>Variable Cost O&amp;M</t>
-  </si>
-  <si>
     <t>PJ output / PJ input</t>
   </si>
   <si>
@@ -1171,58 +1191,16 @@
     <t>PLN / GJ Activity</t>
   </si>
   <si>
-    <t>Demand Technology</t>
-  </si>
-  <si>
-    <t>Final Energy Consumption</t>
-  </si>
-  <si>
-    <t>~FI_T:DEMAND</t>
-  </si>
-  <si>
-    <t>\I: Demand Commodity Name</t>
-  </si>
-  <si>
-    <t>Demand [PJ]</t>
-  </si>
-  <si>
-    <t>Technology Specific Fuel Emission Factors</t>
-  </si>
-  <si>
-    <t>~PRCCOMEMI</t>
-  </si>
-  <si>
-    <t>&lt;- Fuel</t>
-  </si>
-  <si>
-    <t>Fuel2</t>
-  </si>
-  <si>
-    <t>Fuel3 …</t>
-  </si>
-  <si>
-    <t>Emission Commodity Name</t>
-  </si>
-  <si>
-    <t>Emission Factor</t>
-  </si>
-  <si>
-    <t>BIOMASS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>ELE_POLANIEC</t>
-  </si>
-  <si>
-    <t>Polaniec Power Plant</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>TWh</t>
+    <t>MIN_EX_WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Mine</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
   </si>
 </sst>
 </file>
@@ -2458,8 +2436,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
@@ -2517,6 +2499,7 @@
     <xf numFmtId="2" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2526,18 +2509,42 @@
     <xf numFmtId="0" fontId="52" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2580,6 +2587,27 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2592,215 +2620,69 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2810,6 +2692,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3173,7 +3058,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3652,278 +3537,277 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="58" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="58" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" style="58" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="58" customWidth="1"/>
-    <col min="10" max="10" width="3" style="58" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="58" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+      <c r="B2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="117" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.45" customHeight="1">
+      <c r="A4" s="104"/>
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="123" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="117"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="104"/>
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.45" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
+      <c r="C5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="123"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="27" t="s">
+      <c r="D5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="E5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="F5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="G5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="H5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="I5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="J5" s="106"/>
+      <c r="K5" s="117"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
+      <c r="A6" s="104"/>
+      <c r="B6" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="106"/>
+      <c r="K6" s="117"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="104"/>
+      <c r="B7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="123"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="123"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="123"/>
+      <c r="C7" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="123"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="123"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="123"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="123"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="123"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="117"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="122" t="s">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B15" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="116"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B16" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B17" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="122"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="87" t="s">
+      <c r="C17" s="97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B18" s="98" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="88" t="s">
+      <c r="C18" s="98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C19" s="97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="13.5" thickBot="1">
+      <c r="B20" s="99" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="89" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="88" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="99" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3944,288 +3828,287 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="25" style="58" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="58" customWidth="1"/>
-    <col min="6" max="7" width="10" style="58" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="58" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="58" customWidth="1"/>
-    <col min="10" max="10" width="10" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
+      <c r="B4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
+      <c r="B6" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="29" t="s">
+      <c r="I6" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="47.25" customHeight="1">
-      <c r="B6" s="30" t="s">
+      <c r="C17" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C18" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="C19" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="C20" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="C22" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="98" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="98" t="s">
+      <c r="C24" s="54" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="98" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="98" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="98" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="98" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="98" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4241,8 +4124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4257,222 +4140,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="A1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:20" ht="18">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="D4" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="A4" s="5"/>
+      <c r="D4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" thickBot="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B8" s="11" t="str">
+      <c r="B8" s="15" t="str">
         <f>SEC_Processes!D8</f>
         <v>MIN_EX_BROWN_COAL</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="15" t="str">
         <f>SEC_Processes!E8</f>
         <v>Brown Coal Mine</v>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="18" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="17">
         <v>100</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="20" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>MIN_EX_WIND_ON</v>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f>SEC_Processes!E9</f>
+        <v>Wind Mine</v>
+      </c>
+      <c r="D9" s="21" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E9" s="120">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4486,199 +4380,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="58" customWidth="1"/>
-    <col min="5" max="11" width="11.42578125" style="58" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="E4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="39" thickBot="1">
+      <c r="B6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="104"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="E4" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="38.25">
-      <c r="B6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="56" t="s">
+    </row>
+    <row r="7" spans="2:12" ht="26.25" thickBot="1">
+      <c r="B7" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="25.5">
-      <c r="B7" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>114</v>
+      <c r="G7" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="115" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="111" t="str">
+      <c r="B8" s="62" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_BELCHATOW</v>
       </c>
-      <c r="C8" s="111" t="str">
+      <c r="C8" s="62" t="str">
         <f>SEC_Processes!E7</f>
         <v>Belchatow Power Plant</v>
       </c>
-      <c r="D8" s="112" t="str">
+      <c r="D8" s="85" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="112" t="str">
+      <c r="E8" s="85" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="86">
         <v>6.5</v>
       </c>
-      <c r="G8" s="113">
+      <c r="G8" s="86">
         <v>0.3</v>
       </c>
-      <c r="H8" s="114">
+      <c r="H8" s="87">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="114">
+      <c r="I8" s="87">
         <v>1</v>
       </c>
-      <c r="J8" s="115">
+      <c r="J8" s="17">
         <v>1</v>
       </c>
-      <c r="K8" s="114">
+      <c r="K8" s="87">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
+    <row r="9" spans="2:12" ht="13.5" thickBot="1">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="E14" s="121"/>
+      <c r="E14" s="113"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15" s="121"/>
+      <c r="E15" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4691,200 +4584,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="58"/>
-    <col min="2" max="2" width="17.140625" style="58" customWidth="1"/>
-    <col min="3" max="11" width="11.42578125" style="58" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="58"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
+      <c r="B2" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="50" t="s">
+      <c r="H5" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="51" t="s">
+      <c r="I5" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="39" thickBot="1">
+      <c r="B6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="87"/>
+    </row>
+    <row r="8" spans="2:11" ht="13.5" thickBot="1">
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+    </row>
+    <row r="10" spans="2:11" ht="18">
+      <c r="B10" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="51" t="s">
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="94">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="94">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="95">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="26.25" thickBot="1">
+      <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="38.25">
-      <c r="B6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="52" t="s">
+      <c r="C17" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="114"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-    </row>
-    <row r="10" spans="2:11" ht="18">
-      <c r="B10" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="108" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="53">
-        <v>2020</v>
-      </c>
-      <c r="D16" s="53">
-        <v>2021</v>
-      </c>
-      <c r="E16" s="54">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="25.5">
-      <c r="B17" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="111" t="str">
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="62" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="112">
+      <c r="C18" s="85">
         <v>200</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-      <c r="G18" s="58">
-        <f>+C18/PP!G8</f>
-        <v>666.66666666666674</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+    </row>
+    <row r="19" spans="2:5" ht="13.5" thickBot="1">
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4899,7 +4786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -4910,96 +4797,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
-      <c r="B2" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="H5" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>124</v>
+      <c r="B5" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="H5" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="39" thickBot="1">
-      <c r="B6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="125" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
+      <c r="B6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5010,8 +4897,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -5063,8 +4950,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5154,6 +5041,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5162,14 +5055,8 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -5187,18 +5074,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C6C12-A48D-4C27-8681-A8CCA0267EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEF3E52-C25D-4EC1-8F0E-CF035C50F717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="134">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1201,6 +1201,15 @@
   </si>
   <si>
     <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>ELE_EX_WIND_TURBINE</t>
+  </si>
+  <si>
+    <t>Wind Turbine Onshore</t>
+  </si>
+  <si>
+    <t>Maximum output</t>
   </si>
 </sst>
 </file>
@@ -2681,6 +2690,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2692,9 +2704,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3579,7 +3588,7 @@
       <c r="H3" s="102"/>
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
-      <c r="K3" s="117" t="s">
+      <c r="K3" s="118" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3596,7 +3605,7 @@
       <c r="H4" s="105"/>
       <c r="I4" s="105"/>
       <c r="J4" s="106"/>
-      <c r="K4" s="117"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="104"/>
@@ -3625,7 +3634,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="106"/>
-      <c r="K5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="104"/>
@@ -3654,7 +3663,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="106"/>
-      <c r="K6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="104"/>
@@ -3677,7 +3686,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="106"/>
-      <c r="K7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="104"/>
@@ -3700,7 +3709,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="106"/>
-      <c r="K8" s="117"/>
+      <c r="K8" s="118"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="104"/>
@@ -3723,7 +3732,7 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="106"/>
-      <c r="K9" s="117"/>
+      <c r="K9" s="118"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="104"/>
@@ -3736,7 +3745,7 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="106"/>
-      <c r="K10" s="117"/>
+      <c r="K10" s="118"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="104"/>
@@ -3749,7 +3758,7 @@
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
       <c r="J11" s="106"/>
-      <c r="K11" s="117"/>
+      <c r="K11" s="118"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="107"/>
@@ -3762,14 +3771,14 @@
       <c r="H12" s="108"/>
       <c r="I12" s="108"/>
       <c r="J12" s="109"/>
-      <c r="K12" s="117"/>
+      <c r="K12" s="118"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="116"/>
+      <c r="C15" s="117"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="96" t="s">
@@ -3829,7 +3838,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3995,13 +4004,26 @@
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="39"/>
+      <c r="B10" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="D10" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="41" t="str">
+        <f>G7</f>
+        <v>GWe</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>105</v>
+      </c>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
     </row>
@@ -4124,7 +4146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4335,7 +4357,7 @@
         <f>SEC_Comm!C9</f>
         <v>WIND_ON</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="116">
         <v>1E-3</v>
       </c>
       <c r="F9" s="22"/>
@@ -4380,8 +4402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4556,16 +4578,54 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="92"/>
+      <c r="B9" s="88" t="str">
+        <f>SEC_Processes!D10</f>
+        <v>ELE_EX_WIND_TURBINE</v>
+      </c>
+      <c r="C9" s="88" t="str">
+        <f>SEC_Processes!E10</f>
+        <v>Wind Turbine Onshore</v>
+      </c>
+      <c r="D9" s="89" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E9" s="89" t="str">
+        <f>E8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F9" s="90">
+        <v>1.345</v>
+      </c>
+      <c r="G9" s="90">
+        <v>1</v>
+      </c>
+      <c r="H9" s="91">
+        <f>H8</f>
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I9" s="91">
+        <v>0.33</v>
+      </c>
+      <c r="J9" s="92">
+        <v>1</v>
+      </c>
       <c r="K9" s="92"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12">
+        <f>F9*H9</f>
+        <v>42.41592</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="E13">
+        <f>E12*I9</f>
+        <v>13.997253600000001</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
       <c r="E14" s="113"/>
@@ -4750,11 +4810,11 @@
       <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="62" t="str">
@@ -4847,11 +4907,11 @@
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="62"/>
@@ -4897,6 +4957,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5040,35 +5115,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5090,9 +5140,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEF3E52-C25D-4EC1-8F0E-CF035C50F717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57BA60-2116-4A92-8315-4CC2AFD25BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1210,6 +1210,24 @@
   </si>
   <si>
     <t>Maximum output</t>
+  </si>
+  <si>
+    <t>Limited output</t>
+  </si>
+  <si>
+    <t>MIN_EX_PV</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>PJA</t>
+  </si>
+  <si>
+    <t>ELE_EX_PV</t>
+  </si>
+  <si>
+    <t>PV Mine</t>
   </si>
 </sst>
 </file>
@@ -3546,8 +3564,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3736,12 +3754,22 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="104"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="G10" s="41" t="s">
+        <v>104</v>
+      </c>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="106"/>
@@ -3838,7 +3866,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4028,24 +4056,49 @@
       <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="35"/>
+      <c r="B11" s="35" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="D11" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>104</v>
+      </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="50"/>
+      <c r="B12" s="50" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
+      <c r="D12" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="53" t="str">
+        <f>G10</f>
+        <v>GWe</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>105</v>
+      </c>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
     </row>
@@ -4147,7 +4200,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4363,10 +4416,21 @@
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="str">
+        <f>SEC_Processes!D11</f>
+        <v>MIN_EX_PV</v>
+      </c>
+      <c r="C10" s="15" t="str">
+        <f>SEC_Processes!E11</f>
+        <v>PV Mine</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>PV</v>
+      </c>
+      <c r="E10" s="86">
+        <v>1E-3</v>
+      </c>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
@@ -4400,10 +4464,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4577,61 +4641,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B9" s="88" t="str">
+    <row r="9" spans="2:12">
+      <c r="B9" s="62" t="str">
+        <f>SEC_Processes!D12</f>
+        <v>ELE_EX_PV</v>
+      </c>
+      <c r="C9" s="62" t="str">
+        <f>SEC_Processes!E12</f>
+        <v>PV</v>
+      </c>
+      <c r="D9" s="85" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>PV</v>
+      </c>
+      <c r="E9" s="85" t="str">
+        <f>E8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F9" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="86">
+        <v>1</v>
+      </c>
+      <c r="H9" s="87">
+        <f>H8</f>
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I9" s="87">
+        <v>0.24</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="87"/>
+    </row>
+    <row r="10" spans="2:12" ht="13.5" thickBot="1">
+      <c r="B10" s="88" t="str">
         <f>SEC_Processes!D10</f>
         <v>ELE_EX_WIND_TURBINE</v>
       </c>
-      <c r="C9" s="88" t="str">
+      <c r="C10" s="88" t="str">
         <f>SEC_Processes!E10</f>
         <v>Wind Turbine Onshore</v>
       </c>
-      <c r="D9" s="89" t="str">
+      <c r="D10" s="89" t="str">
         <f>SEC_Comm!C9</f>
         <v>WIND_ON</v>
       </c>
-      <c r="E9" s="89" t="str">
+      <c r="E10" s="89" t="str">
         <f>E8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F10" s="90">
         <v>1.345</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G10" s="90">
         <v>1</v>
       </c>
-      <c r="H9" s="91">
+      <c r="H10" s="91">
         <f>H8</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="91">
+      <c r="I10" s="91">
         <v>0.33</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J10" s="92">
         <v>1</v>
       </c>
-      <c r="K9" s="92"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="D12" t="s">
+      <c r="K10" s="92"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="D14" t="s">
         <v>133</v>
       </c>
-      <c r="E12">
-        <f>F9*H9</f>
+      <c r="E14">
+        <f>F10*H10</f>
         <v>42.41592</v>
       </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="E13">
-        <f>E12*I9</f>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15">
+        <f>E14*I10</f>
         <v>13.997253600000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="E14" s="113"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="E15" s="113"/>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="E16" s="113"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4644,7 +4752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57BA60-2116-4A92-8315-4CC2AFD25BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B05BB2-4F5A-4C61-868D-F06A7EF04CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1228,6 +1228,9 @@
   </si>
   <si>
     <t>PV Mine</t>
+  </si>
+  <si>
+    <t>WEEKLY</t>
   </si>
 </sst>
 </file>
@@ -3565,7 +3568,7 @@
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3865,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3980,7 +3983,7 @@
         <v>107</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
@@ -4466,7 +4469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -5065,21 +5068,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5223,10 +5211,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5248,19 +5261,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B05BB2-4F5A-4C61-868D-F06A7EF04CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB610DA-059E-43AD-8FE1-4056DC824C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1215,22 +1215,25 @@
     <t>Limited output</t>
   </si>
   <si>
-    <t>MIN_EX_PV</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
     <t>PJA</t>
   </si>
   <si>
-    <t>ELE_EX_PV</t>
-  </si>
-  <si>
-    <t>PV Mine</t>
-  </si>
-  <si>
     <t>WEEKLY</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>MIN_EX_SOLAR</t>
+  </si>
+  <si>
+    <t>ELE_EX_SOLAR</t>
+  </si>
+  <si>
+    <t>Solar Mine</t>
+  </si>
+  <si>
+    <t>Solar</t>
   </si>
 </sst>
 </file>
@@ -3567,8 +3570,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3761,10 +3764,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>103</v>
@@ -3868,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3983,7 +3986,7 @@
         <v>107</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
@@ -4064,16 +4067,16 @@
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="38" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>103</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>104</v>
@@ -4087,10 +4090,10 @@
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F12" s="53" t="s">
         <v>103</v>
@@ -4421,15 +4424,15 @@
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="B10" s="15" t="str">
         <f>SEC_Processes!D11</f>
-        <v>MIN_EX_PV</v>
+        <v>MIN_EX_SOLAR</v>
       </c>
       <c r="C10" s="15" t="str">
         <f>SEC_Processes!E11</f>
-        <v>PV Mine</v>
+        <v>Solar Mine</v>
       </c>
       <c r="D10" s="19" t="str">
         <f>SEC_Comm!C10</f>
-        <v>PV</v>
+        <v>SOLAR</v>
       </c>
       <c r="E10" s="86">
         <v>1E-3</v>
@@ -4647,15 +4650,15 @@
     <row r="9" spans="2:12">
       <c r="B9" s="62" t="str">
         <f>SEC_Processes!D12</f>
-        <v>ELE_EX_PV</v>
+        <v>ELE_EX_SOLAR</v>
       </c>
       <c r="C9" s="62" t="str">
         <f>SEC_Processes!E12</f>
-        <v>PV</v>
+        <v>Solar</v>
       </c>
       <c r="D9" s="85" t="str">
         <f>SEC_Comm!C10</f>
-        <v>PV</v>
+        <v>SOLAR</v>
       </c>
       <c r="E9" s="85" t="str">
         <f>E8</f>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB610DA-059E-43AD-8FE1-4056DC824C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDEFA80-1050-426D-A293-3E21E117F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="153">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1234,21 +1234,80 @@
   </si>
   <si>
     <t>Solar</t>
+  </si>
+  <si>
+    <t>~FI_T:</t>
+  </si>
+  <si>
+    <t>COM_FR</t>
+  </si>
+  <si>
+    <t>1S1W1D</t>
+  </si>
+  <si>
+    <t>1S1W2D</t>
+  </si>
+  <si>
+    <t>1S2W1D</t>
+  </si>
+  <si>
+    <t>1S2W2D</t>
+  </si>
+  <si>
+    <t>2S1W1D</t>
+  </si>
+  <si>
+    <t>2S1W2D</t>
+  </si>
+  <si>
+    <t>2S2W1D</t>
+  </si>
+  <si>
+    <t>2S2W2D</t>
+  </si>
+  <si>
+    <t>TimesSlice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="21">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
+    <numFmt numFmtId="183" formatCode="#,##0."/>
+    <numFmt numFmtId="184" formatCode="&quot;$&quot;#."/>
+    <numFmt numFmtId="185" formatCode="m/d/yy\ h:mm"/>
+    <numFmt numFmtId="186" formatCode="#.00"/>
+    <numFmt numFmtId="187" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="188" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="189" formatCode="yyyy"/>
+    <numFmt numFmtId="190" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="94">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1632,8 +1691,208 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="BERNHARD"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="37"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Small Fonts"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="39"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="39"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color indexed="48"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1828,8 +2087,88 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor indexed="48"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2124,113 +2463,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="48"/>
+      </left>
+      <right style="thin">
+        <color indexed="48"/>
+      </right>
+      <top style="thin">
+        <color indexed="48"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="41"/>
+      </left>
+      <right style="thin">
+        <color indexed="48"/>
+      </right>
+      <top style="medium">
+        <color indexed="41"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="39"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="39"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="39"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="340">
+  <cellStyleXfs count="768">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2247,199 +2644,238 @@
     <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2447,222 +2883,924 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="6" fillId="37" borderId="28">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="183" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="7" fillId="39" borderId="30" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="66" fillId="0" borderId="0" applyBorder="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="0" borderId="31">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="22" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="79" fillId="29" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="29" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="29" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="41" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="3" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="9" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="17" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="11" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="15" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="19" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="18" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="42" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="10" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="43" borderId="33" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="44" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="81" fillId="45" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="46" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="44" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="41" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="82" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="44" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="82" fillId="44" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="46" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="41" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="83" fillId="48" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="84" fillId="44" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="40" borderId="30"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="34" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="86" fillId="0" borderId="29" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="87" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="66" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="277"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="277" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="14" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="277" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="277" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="277" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="277" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="277" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="338" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="57" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="31" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="31" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="57" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="12" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="30" borderId="12" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="57" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="338"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="338" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="16" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="16" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="16" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2675,63 +3813,96 @@
     <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="18" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="18" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="35" borderId="12" xfId="573" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="35" borderId="0" xfId="573" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="34" borderId="0" xfId="573" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="12" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="11" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="11" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="10" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="340">
+  <cellStyles count="768">
+    <cellStyle name="20 % - Akzent1 2" xfId="340" xr:uid="{66ADDEBA-CE12-463D-94EE-74A360450A67}"/>
+    <cellStyle name="20 % - Akzent2 2" xfId="341" xr:uid="{1075507D-D8E2-47A9-8B53-70AD613CAAF9}"/>
+    <cellStyle name="20 % - Akzent3 2" xfId="342" xr:uid="{58D691EB-F766-4AC1-B46F-B708E4AED3DE}"/>
+    <cellStyle name="20 % - Akzent4 2" xfId="343" xr:uid="{46FB322D-7700-470E-A001-01E3D05144D2}"/>
+    <cellStyle name="20 % - Akzent5 2" xfId="344" xr:uid="{D4398D7D-8F11-4DDF-81C6-4C35E605D512}"/>
+    <cellStyle name="20 % - Akzent6 2" xfId="345" xr:uid="{7D694041-9ADD-44AB-871E-43D1609FBF47}"/>
+    <cellStyle name="20% - Accent1" xfId="346" xr:uid="{E1802BE3-5653-4467-88D1-80C28D1A6886}"/>
+    <cellStyle name="20% - Accent2" xfId="347" xr:uid="{0399BF40-DBEA-4424-81C1-FA7568081C64}"/>
+    <cellStyle name="20% - Accent3" xfId="348" xr:uid="{A8026F59-AD2E-4FB0-B400-E8EB7AECD2E1}"/>
+    <cellStyle name="20% - Accent4" xfId="349" xr:uid="{0CB1B9C2-EA1B-4132-A6EE-033655A38567}"/>
+    <cellStyle name="20% - Accent5" xfId="350" xr:uid="{932AFC6C-4527-4AFC-8296-75109B016706}"/>
+    <cellStyle name="20% - Accent6" xfId="351" xr:uid="{09DE5CA6-8AF9-4926-B705-0921A0AEA9A8}"/>
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - akcent 1 10" xfId="352" xr:uid="{7757EA09-6F9A-4369-979F-A92E521D97D6}"/>
     <cellStyle name="20% - akcent 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - akcent 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="20% - akcent 1 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2739,7 +3910,9 @@
     <cellStyle name="20% - akcent 1 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - akcent 1 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="20% - akcent 1 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - akcent 1 9" xfId="353" xr:uid="{FEFA17C8-9BCE-492D-A0B9-54B29FD14E84}"/>
     <cellStyle name="20% - akcent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - akcent 2 10" xfId="354" xr:uid="{DD760886-25CF-449D-BFF3-85A793993631}"/>
     <cellStyle name="20% - akcent 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - akcent 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="20% - akcent 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
@@ -2747,7 +3920,9 @@
     <cellStyle name="20% - akcent 2 6" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="20% - akcent 2 7" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="20% - akcent 2 8" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - akcent 2 9" xfId="355" xr:uid="{8C64C0F9-0F13-451B-BA05-1BA9FF9F8A62}"/>
     <cellStyle name="20% - akcent 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - akcent 3 10" xfId="356" xr:uid="{2AF6A768-8EDC-4898-B622-9F0051CD6F96}"/>
     <cellStyle name="20% - akcent 3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="20% - akcent 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="20% - akcent 3 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
@@ -2755,7 +3930,9 @@
     <cellStyle name="20% - akcent 3 6" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="20% - akcent 3 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="20% - akcent 3 8" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - akcent 3 9" xfId="357" xr:uid="{311C44FE-9EFC-4963-B722-5383C67C517F}"/>
     <cellStyle name="20% - akcent 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - akcent 4 10" xfId="358" xr:uid="{43A3DF71-8ECD-487A-B2C7-EEAA192436C6}"/>
     <cellStyle name="20% - akcent 4 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="20% - akcent 4 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="20% - akcent 4 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
@@ -2763,7 +3940,9 @@
     <cellStyle name="20% - akcent 4 6" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="20% - akcent 4 7" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="20% - akcent 4 8" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - akcent 4 9" xfId="359" xr:uid="{9CD33D97-ED40-4975-AE9F-9AB120ED430B}"/>
     <cellStyle name="20% - akcent 5" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - akcent 5 10" xfId="360" xr:uid="{7F4AFAE4-0F8B-439C-A63A-025A14CC800D}"/>
     <cellStyle name="20% - akcent 5 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="20% - akcent 5 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="20% - akcent 5 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
@@ -2771,7 +3950,9 @@
     <cellStyle name="20% - akcent 5 6" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="20% - akcent 5 7" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="20% - akcent 5 8" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - akcent 5 9" xfId="361" xr:uid="{AC74A5C8-F8DE-400C-A011-B0FF7C335B9A}"/>
     <cellStyle name="20% - akcent 6" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - akcent 6 10" xfId="362" xr:uid="{FD86C7A4-F255-488D-9DEB-229AB45BEA84}"/>
     <cellStyle name="20% - akcent 6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="20% - akcent 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="20% - akcent 6 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
@@ -2779,7 +3960,23 @@
     <cellStyle name="20% - akcent 6 6" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="20% - akcent 6 7" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="20% - akcent 6 8" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - akcent 6 9" xfId="363" xr:uid="{F4388652-963C-4B29-97D9-78E4A53DC381}"/>
+    <cellStyle name="2x indented GHG Textfiels" xfId="364" xr:uid="{6C283717-1172-48BF-8853-FB52E4CE9DB5}"/>
+    <cellStyle name="2x indented GHG Textfiels 2" xfId="365" xr:uid="{C10274E4-7A6A-4127-8D0A-BFD1DFBD858C}"/>
+    <cellStyle name="40 % - Akzent1 2" xfId="366" xr:uid="{BDB0F0C0-5EFC-4ACF-B6D4-A931D0C048FE}"/>
+    <cellStyle name="40 % - Akzent2 2" xfId="367" xr:uid="{CACDD39C-5499-4250-B2FB-23B8A4D5728C}"/>
+    <cellStyle name="40 % - Akzent3 2" xfId="368" xr:uid="{B0660FD6-F67A-4E60-9C5D-B3A8BE2E4FCE}"/>
+    <cellStyle name="40 % - Akzent4 2" xfId="369" xr:uid="{92249084-7718-4404-8F57-408B2C2B5604}"/>
+    <cellStyle name="40 % - Akzent5 2" xfId="370" xr:uid="{D35E31C4-1822-47C2-9BB2-799EBD3A5828}"/>
+    <cellStyle name="40 % - Akzent6 2" xfId="371" xr:uid="{E5012425-81E1-425E-947A-079AABA15509}"/>
+    <cellStyle name="40% - Accent1" xfId="372" xr:uid="{5554B731-30F2-4BC7-B77D-F6AD570D2D1A}"/>
+    <cellStyle name="40% - Accent2" xfId="373" xr:uid="{EFB5D7BE-1336-4ADA-A052-282C633EBA48}"/>
+    <cellStyle name="40% - Accent3" xfId="374" xr:uid="{2D56C6E9-9E2F-4F6A-99B9-ACC629DD4D37}"/>
+    <cellStyle name="40% - Accent4" xfId="375" xr:uid="{D1E17718-1CA1-4C12-8181-31A4961213E1}"/>
+    <cellStyle name="40% - Accent5" xfId="376" xr:uid="{B4D721E3-6BED-4023-8DB7-759C41E6E152}"/>
+    <cellStyle name="40% - Accent6" xfId="377" xr:uid="{22BAEE48-4645-4E5B-964F-8D885816D503}"/>
     <cellStyle name="40% - akcent 1" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="40% - akcent 1 10" xfId="378" xr:uid="{906EA968-B3A9-4A99-952A-E39733C94081}"/>
     <cellStyle name="40% - akcent 1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="40% - akcent 1 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="40% - akcent 1 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
@@ -2787,7 +3984,9 @@
     <cellStyle name="40% - akcent 1 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="40% - akcent 1 7" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="40% - akcent 1 8" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="40% - akcent 1 9" xfId="379" xr:uid="{AF9CDEDC-F611-471C-AA4A-B5ECB5622D02}"/>
     <cellStyle name="40% - akcent 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - akcent 2 10" xfId="380" xr:uid="{02AD6447-31A8-4E98-B7CC-91FBE080A833}"/>
     <cellStyle name="40% - akcent 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="40% - akcent 2 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="40% - akcent 2 4" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
@@ -2795,7 +3994,9 @@
     <cellStyle name="40% - akcent 2 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="40% - akcent 2 7" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="40% - akcent 2 8" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - akcent 2 9" xfId="381" xr:uid="{64287EAF-FF8E-4616-B69D-298EE5A78A1C}"/>
     <cellStyle name="40% - akcent 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="40% - akcent 3 10" xfId="382" xr:uid="{C1AF65E8-381B-4189-808F-3D5023B6933F}"/>
     <cellStyle name="40% - akcent 3 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="40% - akcent 3 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="40% - akcent 3 4" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
@@ -2803,7 +4004,9 @@
     <cellStyle name="40% - akcent 3 6" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="40% - akcent 3 7" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="40% - akcent 3 8" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - akcent 3 9" xfId="383" xr:uid="{5DAC9682-44C7-453A-B019-D69314D7C721}"/>
     <cellStyle name="40% - akcent 4" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - akcent 4 10" xfId="384" xr:uid="{5DC5C6C9-5435-4FF9-B130-A3E501557F7F}"/>
     <cellStyle name="40% - akcent 4 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="40% - akcent 4 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="40% - akcent 4 4" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
@@ -2811,7 +4014,9 @@
     <cellStyle name="40% - akcent 4 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="40% - akcent 4 7" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
     <cellStyle name="40% - akcent 4 8" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - akcent 4 9" xfId="385" xr:uid="{08CC8491-804D-410B-9E2C-FF29CCB8B06A}"/>
     <cellStyle name="40% - akcent 5" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - akcent 5 10" xfId="386" xr:uid="{91CA9F5A-2574-417B-8D26-5CAEFCA8C116}"/>
     <cellStyle name="40% - akcent 5 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
     <cellStyle name="40% - akcent 5 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
     <cellStyle name="40% - akcent 5 4" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
@@ -2819,7 +4024,9 @@
     <cellStyle name="40% - akcent 5 6" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
     <cellStyle name="40% - akcent 5 7" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
     <cellStyle name="40% - akcent 5 8" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - akcent 5 9" xfId="387" xr:uid="{5729B590-A4B0-489A-ACF5-222CE8AF72F9}"/>
     <cellStyle name="40% - akcent 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - akcent 6 10" xfId="388" xr:uid="{F543A29D-2FD9-40A4-A6F1-045035BAE8C8}"/>
     <cellStyle name="40% - akcent 6 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
     <cellStyle name="40% - akcent 6 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
     <cellStyle name="40% - akcent 6 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
@@ -2827,7 +4034,23 @@
     <cellStyle name="40% - akcent 6 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
     <cellStyle name="40% - akcent 6 7" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
     <cellStyle name="40% - akcent 6 8" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - akcent 6 9" xfId="389" xr:uid="{08C896AE-48A8-4D31-A908-9ED12B2C935A}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="390" xr:uid="{519AD473-BCEC-4417-9E06-04ADA7BD6611}"/>
+    <cellStyle name="5x indented GHG Textfiels 2" xfId="391" xr:uid="{45BF227E-64CE-4554-A69E-D7EF6EB3C7E5}"/>
+    <cellStyle name="60 % - Akzent1 2" xfId="392" xr:uid="{42416D5B-24FF-4595-A1CF-D7ABC8392FB6}"/>
+    <cellStyle name="60 % - Akzent2 2" xfId="393" xr:uid="{80B6DDB3-77C3-4418-9CC8-6B9F368C8081}"/>
+    <cellStyle name="60 % - Akzent3 2" xfId="394" xr:uid="{05511083-2611-486C-8C4D-031B5BB8C2A7}"/>
+    <cellStyle name="60 % - Akzent4 2" xfId="395" xr:uid="{96377207-0B41-492A-B320-C1C70F124BD9}"/>
+    <cellStyle name="60 % - Akzent5 2" xfId="396" xr:uid="{051BB422-6A0A-4390-B647-5988D7C3D3F6}"/>
+    <cellStyle name="60 % - Akzent6 2" xfId="397" xr:uid="{451DA321-996E-4A5A-AB3F-61DADF9B9D06}"/>
+    <cellStyle name="60% - Accent1" xfId="398" xr:uid="{057CB3AE-5D36-4C28-B602-7AFD4E19918D}"/>
+    <cellStyle name="60% - Accent2" xfId="399" xr:uid="{9B42B003-76F6-4E32-A137-AF8A7BDB2A56}"/>
+    <cellStyle name="60% - Accent3" xfId="400" xr:uid="{98C84CDB-0819-4351-AE3D-7BB65414AE4C}"/>
+    <cellStyle name="60% - Accent4" xfId="401" xr:uid="{8F8BC4DB-D430-4B4C-81E1-993A74BD5E0B}"/>
+    <cellStyle name="60% - Accent5" xfId="402" xr:uid="{23AE8485-FFD5-419A-8BDE-00E8B398DFED}"/>
+    <cellStyle name="60% - Accent6" xfId="403" xr:uid="{E3EB8BC1-B37B-4B5F-8123-B1FFCB917AA7}"/>
     <cellStyle name="60% - akcent 1" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="60% - akcent 1 10" xfId="404" xr:uid="{90AE50FE-E78C-4FCB-9A82-25865D57AE27}"/>
     <cellStyle name="60% - akcent 1 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
     <cellStyle name="60% - akcent 1 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
     <cellStyle name="60% - akcent 1 4" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
@@ -2835,7 +4058,9 @@
     <cellStyle name="60% - akcent 1 6" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
     <cellStyle name="60% - akcent 1 7" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
     <cellStyle name="60% - akcent 1 8" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="60% - akcent 1 9" xfId="405" xr:uid="{395BA926-A464-4566-AB2E-1217D5B23183}"/>
     <cellStyle name="60% - akcent 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="60% - akcent 2 10" xfId="406" xr:uid="{F7C1A8DB-D3FF-4F37-B8CC-1E6F98D01CAE}"/>
     <cellStyle name="60% - akcent 2 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
     <cellStyle name="60% - akcent 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
     <cellStyle name="60% - akcent 2 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
@@ -2843,7 +4068,9 @@
     <cellStyle name="60% - akcent 2 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
     <cellStyle name="60% - akcent 2 7" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
     <cellStyle name="60% - akcent 2 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="60% - akcent 2 9" xfId="407" xr:uid="{830D1EC8-3E32-4535-BC56-F3C417EB710C}"/>
     <cellStyle name="60% - akcent 3" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="60% - akcent 3 10" xfId="408" xr:uid="{76CB3646-796A-42EA-84F4-C6E34B6B1B17}"/>
     <cellStyle name="60% - akcent 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
     <cellStyle name="60% - akcent 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
     <cellStyle name="60% - akcent 3 4" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
@@ -2851,7 +4078,9 @@
     <cellStyle name="60% - akcent 3 6" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
     <cellStyle name="60% - akcent 3 7" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
     <cellStyle name="60% - akcent 3 8" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="60% - akcent 3 9" xfId="409" xr:uid="{B929DDFB-F990-4828-B1D1-339EC6347543}"/>
     <cellStyle name="60% - akcent 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="60% - akcent 4 10" xfId="410" xr:uid="{8B2677A5-5CB3-4E45-AAAB-F83D60B4E7A1}"/>
     <cellStyle name="60% - akcent 4 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
     <cellStyle name="60% - akcent 4 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
     <cellStyle name="60% - akcent 4 4" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
@@ -2859,7 +4088,9 @@
     <cellStyle name="60% - akcent 4 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
     <cellStyle name="60% - akcent 4 7" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
     <cellStyle name="60% - akcent 4 8" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="60% - akcent 4 9" xfId="411" xr:uid="{0C65B1BB-E98E-47CB-B672-3B35BE8B611F}"/>
     <cellStyle name="60% - akcent 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="60% - akcent 5 10" xfId="412" xr:uid="{061EBF6B-AD0B-40F6-A457-70E6D709B4BF}"/>
     <cellStyle name="60% - akcent 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
     <cellStyle name="60% - akcent 5 3" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
     <cellStyle name="60% - akcent 5 4" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
@@ -2867,7 +4098,9 @@
     <cellStyle name="60% - akcent 5 6" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
     <cellStyle name="60% - akcent 5 7" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
     <cellStyle name="60% - akcent 5 8" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="60% - akcent 5 9" xfId="413" xr:uid="{8F0C154B-DC7D-46FA-A709-B09F3CBA2262}"/>
     <cellStyle name="60% - akcent 6" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="60% - akcent 6 10" xfId="414" xr:uid="{D47EB95A-3D3A-4664-A7E0-2A004327191D}"/>
     <cellStyle name="60% - akcent 6 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
     <cellStyle name="60% - akcent 6 3" xfId="139" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
     <cellStyle name="60% - akcent 6 4" xfId="140" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
@@ -2875,7 +4108,16 @@
     <cellStyle name="60% - akcent 6 6" xfId="142" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
     <cellStyle name="60% - akcent 6 7" xfId="143" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
     <cellStyle name="60% - akcent 6 8" xfId="144" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="60% - akcent 6 9" xfId="415" xr:uid="{7372CAFC-FA1A-4EA1-A1CD-303A23B28420}"/>
+    <cellStyle name="Accent1" xfId="416" xr:uid="{2998152D-91B3-4EEB-8C76-ED7B06AD2BFA}"/>
+    <cellStyle name="Accent2" xfId="417" xr:uid="{6BCFDBE1-CA64-45F7-AE92-D3F91C18E646}"/>
+    <cellStyle name="Accent3" xfId="418" xr:uid="{80909A07-4C75-4AE4-A1BC-ED8546D06DF8}"/>
+    <cellStyle name="Accent4" xfId="419" xr:uid="{EAA31167-7B97-4BB1-9536-6AD9500DAF09}"/>
+    <cellStyle name="Accent5" xfId="420" xr:uid="{B36A814B-0FFE-494A-A438-7B2D9FD98FC9}"/>
+    <cellStyle name="Accent6" xfId="421" xr:uid="{32901A1A-FDCF-492C-9F83-BF22ABC699F6}"/>
+    <cellStyle name="Actual Date" xfId="422" xr:uid="{35E2322F-5B6B-43D6-9549-102EBEFAADBB}"/>
     <cellStyle name="Akcent 1" xfId="145" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Akcent 1 10" xfId="423" xr:uid="{D753E11A-3347-4AB1-8925-52BBB4370FF7}"/>
     <cellStyle name="Akcent 1 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
     <cellStyle name="Akcent 1 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
     <cellStyle name="Akcent 1 4" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
@@ -2883,7 +4125,9 @@
     <cellStyle name="Akcent 1 6" xfId="150" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
     <cellStyle name="Akcent 1 7" xfId="151" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
     <cellStyle name="Akcent 1 8" xfId="152" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Akcent 1 9" xfId="424" xr:uid="{91CF8325-13E0-4F69-9098-87B98F835FEE}"/>
     <cellStyle name="Akcent 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Akcent 2 10" xfId="425" xr:uid="{D5C1C41D-EC31-4980-91EF-9FF7E7E4AF9E}"/>
     <cellStyle name="Akcent 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
     <cellStyle name="Akcent 2 3" xfId="155" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
     <cellStyle name="Akcent 2 4" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
@@ -2891,7 +4135,9 @@
     <cellStyle name="Akcent 2 6" xfId="158" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
     <cellStyle name="Akcent 2 7" xfId="159" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
     <cellStyle name="Akcent 2 8" xfId="160" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Akcent 2 9" xfId="426" xr:uid="{9B3AAC20-FDB0-41B7-8253-7343EB41C9D3}"/>
     <cellStyle name="Akcent 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Akcent 3 10" xfId="427" xr:uid="{48FDD3EE-1FD1-41E7-B7BE-CB8DD8881A69}"/>
     <cellStyle name="Akcent 3 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
     <cellStyle name="Akcent 3 3" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
     <cellStyle name="Akcent 3 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
@@ -2899,7 +4145,9 @@
     <cellStyle name="Akcent 3 6" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
     <cellStyle name="Akcent 3 7" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
     <cellStyle name="Akcent 3 8" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Akcent 3 9" xfId="428" xr:uid="{9EC7F42B-03C5-4160-98D5-9CD0193D75FF}"/>
     <cellStyle name="Akcent 4" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Akcent 4 10" xfId="429" xr:uid="{772D3ADA-49DD-48F3-ADA4-B373305B49BB}"/>
     <cellStyle name="Akcent 4 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
     <cellStyle name="Akcent 4 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
     <cellStyle name="Akcent 4 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
@@ -2907,7 +4155,9 @@
     <cellStyle name="Akcent 4 6" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
     <cellStyle name="Akcent 4 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
     <cellStyle name="Akcent 4 8" xfId="176" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Akcent 4 9" xfId="430" xr:uid="{9C3FA478-FB30-44FF-AA63-32BAF2060E6A}"/>
     <cellStyle name="Akcent 5" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Akcent 5 10" xfId="431" xr:uid="{5049B831-C64D-41AB-92EB-E83DBAAF34DF}"/>
     <cellStyle name="Akcent 5 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
     <cellStyle name="Akcent 5 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
     <cellStyle name="Akcent 5 4" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
@@ -2915,7 +4165,9 @@
     <cellStyle name="Akcent 5 6" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
     <cellStyle name="Akcent 5 7" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
     <cellStyle name="Akcent 5 8" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Akcent 5 9" xfId="432" xr:uid="{80A1E7C5-73EC-404B-8F06-0F0FA6C0C04C}"/>
     <cellStyle name="Akcent 6" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Akcent 6 10" xfId="433" xr:uid="{C24D207A-95D8-4402-A0F1-121153138290}"/>
     <cellStyle name="Akcent 6 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
     <cellStyle name="Akcent 6 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
     <cellStyle name="Akcent 6 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
@@ -2923,7 +4175,26 @@
     <cellStyle name="Akcent 6 6" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
     <cellStyle name="Akcent 6 7" xfId="191" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
     <cellStyle name="Akcent 6 8" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Akcent 6 9" xfId="434" xr:uid="{AEDD9F1E-DBF6-4B1A-B2E6-E8FC411D1CF1}"/>
+    <cellStyle name="Akzent1 2" xfId="435" xr:uid="{DC8BDD84-5189-4C4F-9A98-E248995690FE}"/>
+    <cellStyle name="Akzent2 2" xfId="436" xr:uid="{31C4430D-3DC3-409E-AB97-06E4A5DCB5FC}"/>
+    <cellStyle name="Akzent3 2" xfId="437" xr:uid="{8ED6C31C-0FCA-4401-82D8-9FB407508558}"/>
+    <cellStyle name="Akzent4 2" xfId="438" xr:uid="{4DBA4B00-6E6E-43DB-8303-4C1B25EF3245}"/>
+    <cellStyle name="Akzent5 2" xfId="439" xr:uid="{BA0F360F-74DB-4EB9-8EA3-F43B1E83F518}"/>
+    <cellStyle name="Akzent6 2" xfId="440" xr:uid="{77DD5713-0810-4F3A-8BD8-E74E1B614887}"/>
+    <cellStyle name="Ausgabe 2" xfId="441" xr:uid="{3653309F-1F93-4D42-B9B2-F83327D28C1A}"/>
+    <cellStyle name="Bad" xfId="442" xr:uid="{2586AD1E-5CE5-43DD-B31C-3C333407F795}"/>
+    <cellStyle name="Berechnung 2" xfId="443" xr:uid="{75CA8E2D-4F5C-4115-A0A3-4A3DF47B5FA7}"/>
+    <cellStyle name="Calculation" xfId="444" xr:uid="{BFCF8BE4-2AAF-4E4C-9DA1-A3D8B4CEE29C}"/>
+    <cellStyle name="Check Cell" xfId="445" xr:uid="{0E4DAD6A-C83E-49C5-9BDA-8A5C1E215C3C}"/>
+    <cellStyle name="ColLevel_" xfId="446" xr:uid="{B5D8EBD2-DDBE-4010-B53C-4D63D685123B}"/>
+    <cellStyle name="Comma0" xfId="447" xr:uid="{755BF6A9-7D8C-4AE3-AD4B-1596BF3EB09E}"/>
+    <cellStyle name="Comma0 - Style1" xfId="448" xr:uid="{CB6AF9D1-EFB8-45ED-9FD8-7E3FBBF73EE6}"/>
+    <cellStyle name="Comma0 - Style2" xfId="449" xr:uid="{745CDE79-4DC5-4567-AC71-06C6F7961892}"/>
+    <cellStyle name="Comma0_Input" xfId="450" xr:uid="{4ED92FF8-82E9-41FE-B25F-CF118051981A}"/>
+    <cellStyle name="Currency0" xfId="451" xr:uid="{94056739-EEF4-49D5-A1B8-DD259D6298B3}"/>
     <cellStyle name="Dane wejściowe" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Dane wejściowe 10" xfId="452" xr:uid="{D1E01331-5A21-4F30-8E7A-A48D09F96BC0}"/>
     <cellStyle name="Dane wejściowe 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
     <cellStyle name="Dane wejściowe 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
     <cellStyle name="Dane wejściowe 4" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
@@ -2931,7 +4202,9 @@
     <cellStyle name="Dane wejściowe 6" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
     <cellStyle name="Dane wejściowe 7" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
     <cellStyle name="Dane wejściowe 8" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Dane wejściowe 9" xfId="453" xr:uid="{96D84852-FD84-4C86-B6A3-AC1911175646}"/>
     <cellStyle name="Dane wyjściowe" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Dane wyjściowe 10" xfId="454" xr:uid="{1DA753C0-FF3A-4F0A-9F85-BC251B0B1677}"/>
     <cellStyle name="Dane wyjściowe 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
     <cellStyle name="Dane wyjściowe 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
     <cellStyle name="Dane wyjściowe 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
@@ -2939,7 +4212,15 @@
     <cellStyle name="Dane wyjściowe 6" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
     <cellStyle name="Dane wyjściowe 7" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
     <cellStyle name="Dane wyjściowe 8" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Dane wyjściowe 9" xfId="455" xr:uid="{929E2CC5-877B-420A-A5B6-C2144F109E7C}"/>
+    <cellStyle name="Date" xfId="456" xr:uid="{841AAC8A-0E4B-468C-B52E-D1B3BAFB1312}"/>
+    <cellStyle name="DateTime" xfId="457" xr:uid="{1E39B662-34E8-4AE4-AEA0-1F030B0C390E}"/>
+    <cellStyle name="Dezimal [0] 2" xfId="458" xr:uid="{90A4AAE1-60DF-4514-A6EA-7DCF6E50185C}"/>
+    <cellStyle name="Dezimal 2" xfId="459" xr:uid="{B53DDDAB-4C77-4B18-A025-4AEF79180F63}"/>
+    <cellStyle name="Dezimal 3" xfId="460" xr:uid="{23664935-22E1-4970-9B5E-D8D555A84E41}"/>
+    <cellStyle name="Dezimal_Results_Pan_EU_OLGA_NUC" xfId="461" xr:uid="{96E6DD89-A80A-462F-BB75-2281ED797D69}"/>
     <cellStyle name="Dobre" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Dobre 10" xfId="462" xr:uid="{8107283C-FC6E-400B-93DB-2ED880FBFB68}"/>
     <cellStyle name="Dobre 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
     <cellStyle name="Dobre 3" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
     <cellStyle name="Dobre 4" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
@@ -2947,8 +4228,83 @@
     <cellStyle name="Dobre 6" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
     <cellStyle name="Dobre 7" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Dobre 8" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Dobre 9" xfId="463" xr:uid="{88D2D354-9DFA-423A-B577-BDECD8D375F3}"/>
+    <cellStyle name="Eingabe 2" xfId="464" xr:uid="{3AF306AC-95BD-4E24-996F-88D2D324B147}"/>
+    <cellStyle name="Ergebnis 2" xfId="465" xr:uid="{E84B7BB8-8F6E-4339-A8C2-B25A00254015}"/>
+    <cellStyle name="Erklärender Text 2" xfId="466" xr:uid="{A5319CFB-DF9E-45A5-BC15-F9ADE0D5D465}"/>
     <cellStyle name="Euro" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Euro 2" xfId="467" xr:uid="{79C5F4C5-0C64-465A-BFE1-C71CC09CB4D4}"/>
+    <cellStyle name="Euro 2 2" xfId="468" xr:uid="{FC022A7E-59CC-433B-8D55-2A4C7F61AFA4}"/>
+    <cellStyle name="Euro 2 3" xfId="469" xr:uid="{101BE926-A3D3-49A4-9AF8-9D8B36BC3A51}"/>
+    <cellStyle name="Euro 3" xfId="470" xr:uid="{EA58620E-5D8D-4A8A-A44F-B01635CE2AD4}"/>
+    <cellStyle name="Explanatory Text" xfId="471" xr:uid="{DBF403FD-6AD1-495F-BE34-E5CF7997928F}"/>
+    <cellStyle name="Fixed" xfId="472" xr:uid="{49D07B29-FBBE-4369-8EA6-8865812E8347}"/>
+    <cellStyle name="Fixed1 - Style1" xfId="473" xr:uid="{714E69E3-9472-4473-B13E-9F0877549F6F}"/>
+    <cellStyle name="Good" xfId="474" xr:uid="{08939BF2-9623-4E06-9F69-35976DEF14A9}"/>
+    <cellStyle name="Grey" xfId="475" xr:uid="{E16BD3A2-B46C-4C1C-87B3-1A98648D5308}"/>
+    <cellStyle name="Gut 2" xfId="476" xr:uid="{356F5119-E6A7-4E05-991C-5B81A03A0AC5}"/>
+    <cellStyle name="HEADER" xfId="477" xr:uid="{9F5731D4-914F-4F98-B5BF-B85191EB0A1C}"/>
+    <cellStyle name="Heading 1" xfId="478" xr:uid="{6A8196D4-318E-45DB-AC20-3853B86FDCB8}"/>
+    <cellStyle name="Heading 1 10" xfId="479" xr:uid="{84ADC184-B515-4D67-AF72-B7A8E6CDA841}"/>
+    <cellStyle name="Heading 1 11" xfId="480" xr:uid="{44D47B58-23F6-4F3F-8208-88D8697661AD}"/>
+    <cellStyle name="Heading 1 12" xfId="481" xr:uid="{239A81BE-2EC0-47F8-8838-361FBD13D2A4}"/>
+    <cellStyle name="Heading 1 13" xfId="482" xr:uid="{84594710-AAE9-4CBE-A5A2-4847AD642C05}"/>
+    <cellStyle name="Heading 1 14" xfId="483" xr:uid="{13CBFE1B-265D-4F89-8DDC-E63BC4815BB8}"/>
+    <cellStyle name="Heading 1 15" xfId="484" xr:uid="{4EF7DB04-3299-4CDC-A69C-F906AE3747D5}"/>
+    <cellStyle name="Heading 1 16" xfId="485" xr:uid="{3440DCA0-7ECE-4821-B9D1-C99F41E37315}"/>
+    <cellStyle name="Heading 1 17" xfId="486" xr:uid="{387DDEA7-21AF-440A-B649-2AF00FB35656}"/>
+    <cellStyle name="Heading 1 18" xfId="487" xr:uid="{3EE08111-7615-4188-876F-7BAACE2D0B2F}"/>
+    <cellStyle name="Heading 1 19" xfId="488" xr:uid="{DB36B2C3-E7AE-4B22-AC02-93FDC171CD1B}"/>
+    <cellStyle name="Heading 1 2" xfId="489" xr:uid="{2A04F98A-584B-40C7-9445-91A898321E1B}"/>
+    <cellStyle name="Heading 1 3" xfId="490" xr:uid="{1904D175-C0C3-4C1A-88AB-12C88C800B55}"/>
+    <cellStyle name="Heading 1 4" xfId="491" xr:uid="{D352A38A-5E65-455E-AD7F-BEC5C74826D6}"/>
+    <cellStyle name="Heading 1 5" xfId="492" xr:uid="{74CC407A-29FE-4558-AE21-86AFF77B5512}"/>
+    <cellStyle name="Heading 1 6" xfId="493" xr:uid="{83104FDB-195F-4AE1-969F-CB89FD772B48}"/>
+    <cellStyle name="Heading 1 7" xfId="494" xr:uid="{983F94CA-F020-4561-97F0-451A7C14D050}"/>
+    <cellStyle name="Heading 1 8" xfId="495" xr:uid="{DB48D190-DB60-44A9-AB89-7CA145A495F2}"/>
+    <cellStyle name="Heading 1 9" xfId="496" xr:uid="{6FD521EE-275C-421C-9E35-7823746E67DA}"/>
+    <cellStyle name="Heading 2" xfId="497" xr:uid="{790857F8-F032-4B19-A3C8-8F06E07ACBFD}"/>
+    <cellStyle name="Heading 2 10" xfId="498" xr:uid="{95A61B22-5665-4285-AB15-2D2A835990F3}"/>
+    <cellStyle name="Heading 2 11" xfId="499" xr:uid="{09125C03-5374-44F9-B890-AEFF3F527149}"/>
+    <cellStyle name="Heading 2 12" xfId="500" xr:uid="{849CC137-533C-4F91-AA11-C3D498521C17}"/>
+    <cellStyle name="Heading 2 13" xfId="501" xr:uid="{183B23CA-C87B-4573-AB7F-E83CEC637286}"/>
+    <cellStyle name="Heading 2 14" xfId="502" xr:uid="{9055F032-1C7C-4FD3-91D7-F52A13C8CD10}"/>
+    <cellStyle name="Heading 2 15" xfId="503" xr:uid="{EBD3DC19-2FE8-4AF6-B1DB-BE5B43482C8F}"/>
+    <cellStyle name="Heading 2 16" xfId="504" xr:uid="{9DAACA8F-26C3-4D72-AFE9-2584A7D1D6A8}"/>
+    <cellStyle name="Heading 2 17" xfId="505" xr:uid="{25A5A84A-2DF9-4946-A6B0-112377685D54}"/>
+    <cellStyle name="Heading 2 18" xfId="506" xr:uid="{F8BBAB3C-B264-493C-927C-A36F7ED37021}"/>
+    <cellStyle name="Heading 2 19" xfId="507" xr:uid="{F20C0BB7-E4F3-4250-898B-69BC4DEA2507}"/>
+    <cellStyle name="Heading 2 2" xfId="508" xr:uid="{09BA1DF8-FFC6-4C2A-8059-6C7CA3570503}"/>
+    <cellStyle name="Heading 2 3" xfId="509" xr:uid="{8D6AD10D-108D-4DD8-AAC1-B7A55474CB09}"/>
+    <cellStyle name="Heading 2 4" xfId="510" xr:uid="{0B34E115-08A5-4199-8659-00F8A4727A93}"/>
+    <cellStyle name="Heading 2 5" xfId="511" xr:uid="{76FBAB94-A099-421F-BB18-9C08C755CE3E}"/>
+    <cellStyle name="Heading 2 6" xfId="512" xr:uid="{404863D5-2B97-4DB7-B9FA-62D24890B2BB}"/>
+    <cellStyle name="Heading 2 7" xfId="513" xr:uid="{B96B2453-49D8-4C18-B6F8-E5EA18FABC89}"/>
+    <cellStyle name="Heading 2 8" xfId="514" xr:uid="{B1D0FF7F-3A9F-45F2-ABEE-A641796BC82E}"/>
+    <cellStyle name="Heading 2 9" xfId="515" xr:uid="{167CE361-ED22-4154-B5F0-ADA5732B9596}"/>
+    <cellStyle name="Heading 3" xfId="516" xr:uid="{8394332E-EE5B-4192-90A3-6ACC52C1BC67}"/>
+    <cellStyle name="Heading 4" xfId="517" xr:uid="{31944BF6-888D-44B5-B59D-82697CDD445A}"/>
+    <cellStyle name="Heading1" xfId="518" xr:uid="{4E814020-5D57-4978-978B-E7FAF7D492B2}"/>
+    <cellStyle name="Heading2" xfId="519" xr:uid="{E3EED737-4F18-44FE-997D-2C68C42E9B1D}"/>
+    <cellStyle name="Headline" xfId="520" xr:uid="{0EF841EB-6E83-4447-B267-55D5609B8479}"/>
+    <cellStyle name="HIGHLIGHT" xfId="521" xr:uid="{411AB65F-AD2E-4565-878D-C24233E03180}"/>
+    <cellStyle name="Hiperłącze 2" xfId="522" xr:uid="{B31D54FE-E369-4B66-87E8-686EB1BAEE10}"/>
+    <cellStyle name="Hiperłącze 2 2" xfId="523" xr:uid="{1A537F15-F9AE-43DD-8AE2-CBC71C098ACC}"/>
+    <cellStyle name="Hiperłącze 2 3" xfId="524" xr:uid="{F0487257-4473-4C71-BEF7-928887D78D6C}"/>
+    <cellStyle name="Hyperlink 2" xfId="525" xr:uid="{0992285E-8C7A-4EE1-A527-049093E25D42}"/>
+    <cellStyle name="Hyperlink 3" xfId="526" xr:uid="{0B5B8E7A-2A1A-41DE-863D-CE3E5A85D260}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="527" xr:uid="{E362E4F8-B725-43AA-B728-1D544A78FE6A}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="528" xr:uid="{8B7A128D-24E5-46A5-8D1B-B20CCA1DABEF}"/>
+    <cellStyle name="Hyperlink 4" xfId="529" xr:uid="{A86F7183-1BC2-47E1-996A-8E50AF234F1B}"/>
+    <cellStyle name="Input" xfId="530" xr:uid="{57AEEA36-98B9-4034-AC06-CE196F8FD885}"/>
+    <cellStyle name="Input [yellow]" xfId="531" xr:uid="{49E17420-1977-42C6-BE7C-86F1C084415D}"/>
+    <cellStyle name="InputCells" xfId="532" xr:uid="{EBFBD69C-8511-4F71-8ADD-64A8F59A36BB}"/>
+    <cellStyle name="InputCells12_BBorder_CRFReport-template" xfId="533" xr:uid="{E93C8801-29B1-42CF-84A0-CB45A09CDBA4}"/>
+    <cellStyle name="Komma 2" xfId="534" xr:uid="{7629F22B-1A3F-45A0-845D-5BCA7A9EB1C1}"/>
+    <cellStyle name="Komma 3" xfId="535" xr:uid="{51469899-C3AA-4780-B6C5-F66DE19F60F7}"/>
+    <cellStyle name="Komma 4" xfId="536" xr:uid="{675FCF86-8777-4C26-B292-7A8C5C3EAF5D}"/>
     <cellStyle name="Komórka połączona" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Komórka połączona 10" xfId="537" xr:uid="{60A869A1-5CFD-4BBD-93E6-46905EAA8DE2}"/>
     <cellStyle name="Komórka połączona 2" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
     <cellStyle name="Komórka połączona 3" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
     <cellStyle name="Komórka połączona 4" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
@@ -2956,7 +4312,9 @@
     <cellStyle name="Komórka połączona 6" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
     <cellStyle name="Komórka połączona 7" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
     <cellStyle name="Komórka połączona 8" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Komórka połączona 9" xfId="538" xr:uid="{008C8E81-B655-4660-9719-26F384DF728E}"/>
     <cellStyle name="Komórka zaznaczona" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Komórka zaznaczona 10" xfId="539" xr:uid="{F4DB8E31-E4FE-45D4-A7B5-FF050DDD1088}"/>
     <cellStyle name="Komórka zaznaczona 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
     <cellStyle name="Komórka zaznaczona 3" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
     <cellStyle name="Komórka zaznaczona 4" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
@@ -2964,7 +4322,10 @@
     <cellStyle name="Komórka zaznaczona 6" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
     <cellStyle name="Komórka zaznaczona 7" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
     <cellStyle name="Komórka zaznaczona 8" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Komórka zaznaczona 9" xfId="540" xr:uid="{889F5F03-47C2-4694-B355-BB4EB957FD79}"/>
+    <cellStyle name="Linked Cell" xfId="541" xr:uid="{8959B76C-F56B-4AB2-ABCF-CD807C030AF0}"/>
     <cellStyle name="Nagłówek 1" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Nagłówek 1 10" xfId="542" xr:uid="{C1546BD4-2231-4C4E-A6DB-8560272D6ADF}"/>
     <cellStyle name="Nagłówek 1 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
     <cellStyle name="Nagłówek 1 3" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
     <cellStyle name="Nagłówek 1 4" xfId="237" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
@@ -2972,7 +4333,9 @@
     <cellStyle name="Nagłówek 1 6" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
     <cellStyle name="Nagłówek 1 7" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
     <cellStyle name="Nagłówek 1 8" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Nagłówek 1 9" xfId="543" xr:uid="{CCDA77B4-090D-486D-8034-2587AEA9E54E}"/>
     <cellStyle name="Nagłówek 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Nagłówek 2 10" xfId="544" xr:uid="{E978AC2E-784C-4685-953E-712EBCCF0061}"/>
     <cellStyle name="Nagłówek 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
     <cellStyle name="Nagłówek 2 3" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
     <cellStyle name="Nagłówek 2 4" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
@@ -2980,7 +4343,9 @@
     <cellStyle name="Nagłówek 2 6" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
     <cellStyle name="Nagłówek 2 7" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
     <cellStyle name="Nagłówek 2 8" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Nagłówek 2 9" xfId="545" xr:uid="{4D5D9E80-FFAB-4954-9E7C-7F7354712F27}"/>
     <cellStyle name="Nagłówek 3" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Nagłówek 3 10" xfId="546" xr:uid="{A64A64CE-E062-42A7-B4B4-0EB32548AF60}"/>
     <cellStyle name="Nagłówek 3 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
     <cellStyle name="Nagłówek 3 3" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
     <cellStyle name="Nagłówek 3 4" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
@@ -2988,7 +4353,9 @@
     <cellStyle name="Nagłówek 3 6" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
     <cellStyle name="Nagłówek 3 7" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
     <cellStyle name="Nagłówek 3 8" xfId="257" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Nagłówek 3 9" xfId="547" xr:uid="{0965BB8E-0133-4B11-8022-772CA5103DB2}"/>
     <cellStyle name="Nagłówek 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Nagłówek 4 10" xfId="548" xr:uid="{43819D4D-7533-4605-8D4D-1C0E996590F0}"/>
     <cellStyle name="Nagłówek 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
     <cellStyle name="Nagłówek 4 3" xfId="260" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
     <cellStyle name="Nagłówek 4 4" xfId="261" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
@@ -2996,7 +4363,11 @@
     <cellStyle name="Nagłówek 4 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
     <cellStyle name="Nagłówek 4 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
     <cellStyle name="Nagłówek 4 8" xfId="265" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Nagłówek 4 9" xfId="549" xr:uid="{2E26726F-CEE4-4B3C-89E9-5ADB906A4363}"/>
+    <cellStyle name="Neutral" xfId="550" xr:uid="{E1BE5E70-0B5E-47F1-82BA-78AA7A5F3177}"/>
+    <cellStyle name="Neutral 2" xfId="551" xr:uid="{00739E1C-1A3A-4108-B5A3-C51FC980DC59}"/>
     <cellStyle name="Neutralne" xfId="266" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Neutralne 10" xfId="552" xr:uid="{A299C743-8ABC-4E32-9A7C-ED74495FD840}"/>
     <cellStyle name="Neutralne 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
     <cellStyle name="Neutralne 3" xfId="268" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
     <cellStyle name="Neutralne 4" xfId="269" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
@@ -3004,15 +4375,47 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Neutralne 9" xfId="553" xr:uid="{F33A3E41-715A-40F3-AA66-F1D7B2A5D49A}"/>
+    <cellStyle name="no dec" xfId="554" xr:uid="{AF08CDC5-5DBD-4804-96F1-9FC116DB4543}"/>
+    <cellStyle name="Normal - Style1" xfId="555" xr:uid="{C32FF2AF-6212-425F-A5DE-B5252E73DAC4}"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Normal 14" xfId="556" xr:uid="{191220E4-F691-4A16-84FE-6EE8BDB48773}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Normal 20" xfId="557" xr:uid="{FDECE6AD-8306-461B-97D1-BD9D4281DD96}"/>
+    <cellStyle name="Normal 21" xfId="558" xr:uid="{E882D56D-8674-4698-9269-921C0B56655B}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="Normal 4" xfId="339" xr:uid="{87DF59A0-13B6-483D-9CBE-BCCD9D8FCC03}"/>
+    <cellStyle name="Normal 3 2" xfId="559" xr:uid="{C043EFE6-97F9-4E01-82F9-AF56EBF0B014}"/>
+    <cellStyle name="Normal 3 3" xfId="560" xr:uid="{54236E95-4DB0-4C54-8819-3C54D7653F53}"/>
+    <cellStyle name="Normal 4" xfId="338" xr:uid="{87DF59A0-13B6-483D-9CBE-BCCD9D8FCC03}"/>
+    <cellStyle name="Normal 4 2" xfId="561" xr:uid="{C02EF2E3-109C-4B5D-8007-70C81AF66322}"/>
+    <cellStyle name="Normal 5" xfId="562" xr:uid="{07FF1B5B-053B-43D5-816B-29B548CEDFD2}"/>
+    <cellStyle name="Normal 5 2" xfId="563" xr:uid="{9EE981A4-60AC-4D77-8EFD-7858D298F7EA}"/>
+    <cellStyle name="Normal 6" xfId="564" xr:uid="{23B253BB-F77C-4E06-8703-D571BEDE2A43}"/>
+    <cellStyle name="Normal 6 2" xfId="565" xr:uid="{6EE2596C-7D96-45B0-BB29-ABBE93FB0C86}"/>
+    <cellStyle name="Normal 7" xfId="566" xr:uid="{A10D8831-47D1-4D4D-A090-7D0E51305E4A}"/>
+    <cellStyle name="Normal 7 2" xfId="567" xr:uid="{40FE5EE4-C3B6-43E2-98F7-1A28F9FA863C}"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="568" xr:uid="{00A9A654-A5E9-4CE9-B861-83F0A092763C}"/>
+    <cellStyle name="Normal GHG-Shade" xfId="569" xr:uid="{B560A45A-1A3D-441C-96DB-FDB78D01B208}"/>
+    <cellStyle name="Normal GHG-Shade 2" xfId="570" xr:uid="{602004AC-A708-407E-829F-816D7A30AD00}"/>
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 10" xfId="571" xr:uid="{6FDBDF9F-4692-4920-8CF6-9741FC481DF8}"/>
+    <cellStyle name="Normalny 10 2" xfId="572" xr:uid="{4DE9598C-1831-4D26-9358-51078FD5ECAF}"/>
+    <cellStyle name="Normalny 11" xfId="573" xr:uid="{962BE76F-7AD1-4214-BA82-8B7BFD324DB9}"/>
+    <cellStyle name="Normalny 11 2" xfId="574" xr:uid="{8F015E2C-1A50-41B4-B91B-7D08A60EB017}"/>
+    <cellStyle name="Normalny 11 3" xfId="575" xr:uid="{BE9C1EDA-C84B-43E5-960D-CC6A6C2409EC}"/>
+    <cellStyle name="Normalny 12" xfId="576" xr:uid="{B39645B4-430C-4C24-AF5F-F314A00F4B51}"/>
+    <cellStyle name="Normalny 13" xfId="577" xr:uid="{2A2F7EFD-6A38-474C-9F4D-195F1EFC587B}"/>
+    <cellStyle name="Normalny 13 2" xfId="578" xr:uid="{EC586F35-2572-422E-B655-57E85E56B622}"/>
+    <cellStyle name="Normalny 13 3" xfId="579" xr:uid="{90F86BA3-4D5B-4970-95E6-90C3BC5A3E6A}"/>
+    <cellStyle name="Normalny 14" xfId="580" xr:uid="{AEDE1046-C975-4840-8973-C1A4F82C9ACC}"/>
+    <cellStyle name="Normalny 15" xfId="581" xr:uid="{19A458ED-AC17-40DE-9FEB-947BBB0CB644}"/>
+    <cellStyle name="Normalny 16" xfId="339" xr:uid="{EAC1288B-6B6F-4C87-A062-35C2231D6BD0}"/>
     <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Normalny 2 2" xfId="583" xr:uid="{93C5A4A8-AC75-4CBD-A84E-C3CC8585DC9B}"/>
+    <cellStyle name="Normalny 2 3" xfId="582" xr:uid="{482B83E1-7C78-4561-AEAF-9E626D996B2C}"/>
     <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
     <cellStyle name="Normalny 5" xfId="283" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
@@ -3020,7 +4423,10 @@
     <cellStyle name="Normalny 7" xfId="285" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
     <cellStyle name="Normalny 8" xfId="286" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
     <cellStyle name="Normalny 9" xfId="287" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Note" xfId="584" xr:uid="{378B2A0E-4C56-4CD2-B4B4-2398BFC214BB}"/>
+    <cellStyle name="Notiz 2" xfId="585" xr:uid="{C3E54DF3-8FD7-41E5-A1FA-429BCD1D27ED}"/>
     <cellStyle name="Obliczenia" xfId="288" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Obliczenia 10" xfId="586" xr:uid="{99BF35AC-4369-49F6-8AF2-86F7667C79A2}"/>
     <cellStyle name="Obliczenia 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
     <cellStyle name="Obliczenia 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
     <cellStyle name="Obliczenia 4" xfId="291" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
@@ -3028,49 +4434,229 @@
     <cellStyle name="Obliczenia 6" xfId="293" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
     <cellStyle name="Obliczenia 7" xfId="294" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
     <cellStyle name="Obliczenia 8" xfId="295" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="296" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="Suma" xfId="297" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="Suma 2" xfId="298" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="Suma 3" xfId="299" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="Suma 4" xfId="300" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="Suma 5" xfId="301" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="Suma 6" xfId="302" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="Suma 7" xfId="303" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="Suma 8" xfId="304" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="Tekst objaśnienia" xfId="305" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="Tekst objaśnienia 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="Tekst objaśnienia 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="Tekst objaśnienia 4" xfId="308" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="Tekst objaśnienia 5" xfId="309" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="Tekst objaśnienia 6" xfId="310" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="Tekst objaśnienia 7" xfId="311" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="Tekst objaśnienia 8" xfId="312" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="313" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 2" xfId="314" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 3" xfId="315" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 4" xfId="316" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 5" xfId="317" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 6" xfId="318" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 7" xfId="319" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 8" xfId="320" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="Tytuł" xfId="321" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="Uwaga" xfId="322" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="Uwaga 2" xfId="323" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="Uwaga 3" xfId="324" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="Uwaga 4" xfId="325" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="Uwaga 5" xfId="326" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="Uwaga 6" xfId="327" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="Uwaga 7" xfId="328" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="Uwaga 8" xfId="329" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="Złe" xfId="330" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="Złe 2" xfId="331" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="Złe 3" xfId="332" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="Złe 4" xfId="333" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="Złe 5" xfId="334" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="Złe 6" xfId="335" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="Złe 7" xfId="336" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="Złe 8" xfId="337" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="已访问的超链接" xfId="338" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Obliczenia 9" xfId="587" xr:uid="{E838F718-7B0F-4ABB-8E7A-B55D759C8208}"/>
+    <cellStyle name="Output" xfId="588" xr:uid="{1A77BE4D-2557-424A-B00E-5140C2AFDE8D}"/>
+    <cellStyle name="Percent [2]" xfId="589" xr:uid="{CAFC34F1-5464-4CCE-B7D9-E7966BB184B8}"/>
+    <cellStyle name="Procentowy 2" xfId="590" xr:uid="{DEA37683-1CE4-4B63-8E54-0055A25A4D05}"/>
+    <cellStyle name="Procentowy 2 2" xfId="591" xr:uid="{D76B40A0-8037-4D96-B46D-CB5D10B28DF5}"/>
+    <cellStyle name="Procentowy 2 3" xfId="592" xr:uid="{9A3CE353-C878-4998-BAC4-937E08A9633C}"/>
+    <cellStyle name="Procentowy 3" xfId="593" xr:uid="{9EA8170F-A56D-424D-8CB4-38A900E1E567}"/>
+    <cellStyle name="Prozent 2" xfId="594" xr:uid="{438A74E1-6507-4B20-ABF6-26653491AD5C}"/>
+    <cellStyle name="Prozent 2 2" xfId="595" xr:uid="{5D6C5BEF-D2A6-4C4D-82C8-E1FA202C122B}"/>
+    <cellStyle name="Prozent 3" xfId="596" xr:uid="{8F71FE46-9147-42D0-9606-29D63A5C3D47}"/>
+    <cellStyle name="Prozent 4" xfId="597" xr:uid="{569F1003-2B8B-440F-A478-1980D31DE74E}"/>
+    <cellStyle name="Prozent 5" xfId="598" xr:uid="{D997BD52-3C75-451A-BF38-DDC73297967E}"/>
+    <cellStyle name="Prozent 5 2" xfId="599" xr:uid="{293F5BC4-F7D7-4CFE-8D2D-806E5F9D2D3A}"/>
+    <cellStyle name="Prozent 5 3" xfId="600" xr:uid="{A3C06EBB-F507-4A72-9186-0553325651A9}"/>
+    <cellStyle name="Prozent 5 4" xfId="601" xr:uid="{DEE22C95-5A25-45CD-A93D-5E5BC06C9D92}"/>
+    <cellStyle name="Prozent 6" xfId="602" xr:uid="{16135A0C-C7E1-4C17-A22B-1732BDE648AC}"/>
+    <cellStyle name="Prozent 6 2" xfId="603" xr:uid="{85D1FB82-0044-4B63-831C-5E17873D1D42}"/>
+    <cellStyle name="Prozent 6 3" xfId="604" xr:uid="{96684734-9A69-4855-AB45-046B12E8900F}"/>
+    <cellStyle name="Prozent 6 4" xfId="605" xr:uid="{064C7926-8057-4B1E-BD1B-7E72CBADC013}"/>
+    <cellStyle name="Prozent 7" xfId="606" xr:uid="{CBA35A2C-6DF6-4331-8213-986DCC0D6914}"/>
+    <cellStyle name="Prozent 8" xfId="607" xr:uid="{B0BF5007-F9AA-4810-BB3E-B9F7FC18663F}"/>
+    <cellStyle name="Prozent 8 2" xfId="608" xr:uid="{C224A2B9-F7A1-4859-A661-4F38E9436E67}"/>
+    <cellStyle name="RangeName" xfId="609" xr:uid="{103DC70E-B49B-47A7-90B2-CFD8688BBBAC}"/>
+    <cellStyle name="SAPBEXaggData" xfId="610" xr:uid="{092A1534-9D2A-444D-B2D5-F2119E810501}"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="611" xr:uid="{E5B59D69-7E8A-4F07-9DB2-B59E39D226B2}"/>
+    <cellStyle name="SAPBEXaggItem" xfId="612" xr:uid="{D7164523-7116-4DEC-B696-A1D98F496F97}"/>
+    <cellStyle name="SAPBEXaggItemX" xfId="613" xr:uid="{727F51FD-A2D5-4031-850B-60B2ADDF8ACD}"/>
+    <cellStyle name="SAPBEXchaText" xfId="614" xr:uid="{9F8CEA21-B638-4759-A20D-FC76807A4B6B}"/>
+    <cellStyle name="SAPBEXexcBad7" xfId="615" xr:uid="{4454A87D-D71D-4923-8833-B4BEA91D0373}"/>
+    <cellStyle name="SAPBEXexcBad8" xfId="616" xr:uid="{5A77A808-4A11-4368-BC8E-82E98315BAD7}"/>
+    <cellStyle name="SAPBEXexcBad9" xfId="617" xr:uid="{FD148A3D-0A45-45BB-B0C3-5DE2E0581A09}"/>
+    <cellStyle name="SAPBEXexcCritical4" xfId="618" xr:uid="{B21F6A78-900F-4A76-B752-81A441CB0274}"/>
+    <cellStyle name="SAPBEXexcCritical5" xfId="619" xr:uid="{CC49736A-282E-49F3-AB9A-EE47BCF32634}"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="620" xr:uid="{0F8C955F-9A43-40AB-B23B-D4267767E4EC}"/>
+    <cellStyle name="SAPBEXexcGood1" xfId="621" xr:uid="{3C57AC30-F42B-4CA1-9B2F-438D6BA561CB}"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="622" xr:uid="{BD3835ED-1DDE-4A74-9C7C-57DB7BA49BD1}"/>
+    <cellStyle name="SAPBEXexcGood3" xfId="623" xr:uid="{90B0F5D5-5240-457C-BAC9-2D0A1E5E07A9}"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="624" xr:uid="{89D8C5FE-8115-499C-BE30-BF501A620965}"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="625" xr:uid="{2267A521-DCEB-4205-9F95-8F00075A8B4D}"/>
+    <cellStyle name="SAPBEXfilterText" xfId="626" xr:uid="{2C28E1CB-F900-4401-9BDA-680E464FB726}"/>
+    <cellStyle name="SAPBEXformats" xfId="627" xr:uid="{8C85D574-D194-4EBB-B092-FDDA8818AD4A}"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="628" xr:uid="{0FE2A32F-566A-442C-87FD-C85155D076D9}"/>
+    <cellStyle name="SAPBEXheaderText" xfId="629" xr:uid="{4A3A87A1-45B9-4757-B632-A7811A98A8AF}"/>
+    <cellStyle name="SAPBEXHLevel0" xfId="630" xr:uid="{D9A1755C-99EA-40A1-9589-78895C138FCB}"/>
+    <cellStyle name="SAPBEXHLevel0X" xfId="631" xr:uid="{70C97808-7D3A-4074-8356-23F7B2F34215}"/>
+    <cellStyle name="SAPBEXHLevel1" xfId="632" xr:uid="{43F933BA-3EBC-4CA9-ACF9-CB8E6B7E0EFB}"/>
+    <cellStyle name="SAPBEXHLevel1X" xfId="633" xr:uid="{44803466-EBC2-4C84-8FCE-35F9ED83DAAC}"/>
+    <cellStyle name="SAPBEXHLevel2" xfId="634" xr:uid="{76992F80-8ED6-4FF3-9843-C9FBE2352BDB}"/>
+    <cellStyle name="SAPBEXHLevel2X" xfId="635" xr:uid="{790CBD8C-F0BB-4155-9936-782B642DDAA2}"/>
+    <cellStyle name="SAPBEXHLevel3" xfId="636" xr:uid="{948A9830-305B-42CF-8DB0-B2B69F42BAFC}"/>
+    <cellStyle name="SAPBEXHLevel3X" xfId="637" xr:uid="{BF1328D2-3252-4159-B4C9-60D5A7A70B27}"/>
+    <cellStyle name="SAPBEXresData" xfId="638" xr:uid="{1A3B20BE-22F2-4882-B247-4ABC186B02FB}"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="639" xr:uid="{7E252C7A-A14D-4F53-AE56-0569AA411998}"/>
+    <cellStyle name="SAPBEXresItem" xfId="640" xr:uid="{704C4AE8-A4EF-47E5-AE33-6E37A0C912EE}"/>
+    <cellStyle name="SAPBEXresItemX" xfId="641" xr:uid="{0D4913CE-6E10-4D7E-8419-1E1561C85EEA}"/>
+    <cellStyle name="SAPBEXstdData" xfId="642" xr:uid="{49F5DA31-895D-48FB-B89B-99BAF0F79DA1}"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="643" xr:uid="{2F665F14-97C3-4074-AC68-AC3F2A25FB84}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="644" xr:uid="{E8BAEFA4-E2B1-437C-9420-80A4FE4B4C07}"/>
+    <cellStyle name="SAPBEXstdItemX" xfId="645" xr:uid="{07D3F01A-F773-4E0E-868A-0AB3DE77F283}"/>
+    <cellStyle name="SAPBEXtitle" xfId="646" xr:uid="{5CF4588E-DE75-4ADB-9747-1FA1CB608303}"/>
+    <cellStyle name="SAPBEXundefined" xfId="647" xr:uid="{53A6F87A-FEA7-418D-AC68-70931828194D}"/>
+    <cellStyle name="Schlecht 2" xfId="648" xr:uid="{CC75CC29-4925-45BD-A1DC-EBA588B00193}"/>
+    <cellStyle name="Shade" xfId="649" xr:uid="{56D2BACE-4F8B-480F-9F3D-DDC72AF90E80}"/>
+    <cellStyle name="Standaard_Blad1" xfId="650" xr:uid="{6E144599-46E0-4C71-BC11-D21CB0E3DF53}"/>
+    <cellStyle name="Standard 10" xfId="651" xr:uid="{669CC6EB-E78A-49C1-A9D4-27AB73292746}"/>
+    <cellStyle name="Standard 11" xfId="652" xr:uid="{9B7EE87F-7691-42D2-A687-9AB563075F1A}"/>
+    <cellStyle name="Standard 11 2" xfId="653" xr:uid="{B42EBE3D-2B7A-4114-BC95-60B1A7AEEB3E}"/>
+    <cellStyle name="Standard 11 3" xfId="654" xr:uid="{ED8DF6D6-E2AC-4C16-BE37-EB3D70466E78}"/>
+    <cellStyle name="Standard 11 4" xfId="655" xr:uid="{F35669A4-2120-4BA2-ABFF-E8E9BFC6B6BA}"/>
+    <cellStyle name="Standard 12" xfId="656" xr:uid="{63208FA9-BDBB-46FA-AC66-97F66A8E75A4}"/>
+    <cellStyle name="Standard 13" xfId="657" xr:uid="{D3F06908-8439-434C-B1C2-6F783BE68337}"/>
+    <cellStyle name="Standard 2" xfId="658" xr:uid="{9673246B-BFE7-409C-8E3E-2AA086E6E1CF}"/>
+    <cellStyle name="Standard 2 2" xfId="659" xr:uid="{779A7E9A-0CFE-4166-9372-61175A619ACA}"/>
+    <cellStyle name="Standard 2 3" xfId="660" xr:uid="{F65A0EFA-8D46-402C-839A-2D4ED3BD2C27}"/>
+    <cellStyle name="Standard 2 3 2" xfId="661" xr:uid="{4B980414-E32D-4E07-B223-5F5EF1CF9DB0}"/>
+    <cellStyle name="Standard 2 3 3" xfId="662" xr:uid="{9407F09F-5216-4F6C-9301-31B3CA31E808}"/>
+    <cellStyle name="Standard 2 4" xfId="663" xr:uid="{EF3ED590-6B3F-435E-8C36-1FCE8C0403A5}"/>
+    <cellStyle name="Standard 2 4 2" xfId="664" xr:uid="{9D90430A-9028-4B17-954B-701DB661606C}"/>
+    <cellStyle name="Standard 2 4 3" xfId="665" xr:uid="{50730EE9-984B-4BE4-85AE-B4E77D7FA2CA}"/>
+    <cellStyle name="Standard 2 5" xfId="666" xr:uid="{8870D00A-F2D1-44D3-AC01-12ACCD16C180}"/>
+    <cellStyle name="Standard 3" xfId="667" xr:uid="{6C1A3EA9-C78B-4E09-9930-CBA659749DD1}"/>
+    <cellStyle name="Standard 3 2" xfId="668" xr:uid="{08C5B1BF-E7EB-4FB1-9B11-A6D2CD74C4B8}"/>
+    <cellStyle name="Standard 4" xfId="669" xr:uid="{91D8B8B4-D68E-4918-96B4-74B01A3D3FB3}"/>
+    <cellStyle name="Standard 4 2" xfId="670" xr:uid="{59875298-3BC7-42C6-A433-C01CBA9F9A22}"/>
+    <cellStyle name="Standard 5" xfId="671" xr:uid="{A87B2037-67CE-4D31-9BCE-BA5625909163}"/>
+    <cellStyle name="Standard 5 2" xfId="672" xr:uid="{2448AB80-CB94-475E-B131-F00D0E469164}"/>
+    <cellStyle name="Standard 5 2 2" xfId="673" xr:uid="{033213C9-0CB5-4E62-B32A-8DC15A30969C}"/>
+    <cellStyle name="Standard 5 2 2 2" xfId="674" xr:uid="{CA343E9C-5AD3-4031-80D2-55504E331A06}"/>
+    <cellStyle name="Standard 5 2 2 3" xfId="675" xr:uid="{28B68484-55F2-492C-962E-9A9FB5561D32}"/>
+    <cellStyle name="Standard 5 2 3" xfId="676" xr:uid="{A84C44F2-95D7-45D6-AEA9-FBC3408F857E}"/>
+    <cellStyle name="Standard 5 2 3 2" xfId="677" xr:uid="{28CC44F6-35F1-47B0-A709-F673C810A97C}"/>
+    <cellStyle name="Standard 5 2 3 3" xfId="678" xr:uid="{C592E3EF-93A5-438F-8CAA-95C34D8038A1}"/>
+    <cellStyle name="Standard 5 2 4" xfId="679" xr:uid="{DF3E8205-F44F-4783-A961-731C2D8F3B02}"/>
+    <cellStyle name="Standard 5 2 5" xfId="680" xr:uid="{6E2D4E9D-ACF6-4BE9-95CF-E9E96F60A6B2}"/>
+    <cellStyle name="Standard 5 2_ELC_Processes" xfId="681" xr:uid="{80AD0A6B-1DA7-407C-B8AE-C11A887AA67C}"/>
+    <cellStyle name="Standard 5 3" xfId="682" xr:uid="{2B669B90-0E59-4A33-AE43-2B8E270F8FE6}"/>
+    <cellStyle name="Standard 5 3 2" xfId="683" xr:uid="{676FF7C7-B2FE-4A18-A369-0B2DC43307E9}"/>
+    <cellStyle name="Standard 5 3 3" xfId="684" xr:uid="{15160F05-89FE-44D0-B6D4-3091196A352A}"/>
+    <cellStyle name="Standard 5 4" xfId="685" xr:uid="{795950D9-B1E5-4227-B335-499E4DC95AD5}"/>
+    <cellStyle name="Standard 5 4 2" xfId="686" xr:uid="{8B815E36-5206-4999-8EA6-6B55B14BDC7D}"/>
+    <cellStyle name="Standard 5 4 3" xfId="687" xr:uid="{E9A80DB0-7E15-4946-BA05-02ACA8A75ED9}"/>
+    <cellStyle name="Standard 5 5" xfId="688" xr:uid="{0AC15E87-19A4-4A3D-A367-11D6AD9BEFD9}"/>
+    <cellStyle name="Standard 5 5 2" xfId="689" xr:uid="{F52AD57B-2347-49A6-8AF9-C14A630D84DE}"/>
+    <cellStyle name="Standard 5 5 3" xfId="690" xr:uid="{D48435CB-E40D-440B-BF31-ABF33A08ED01}"/>
+    <cellStyle name="Standard 5 6" xfId="691" xr:uid="{36A508A1-247E-46D1-9D89-7380D39A2F99}"/>
+    <cellStyle name="Standard 5 7" xfId="692" xr:uid="{3B33743C-4EAD-4EC8-8C20-1735D0F59B7A}"/>
+    <cellStyle name="Standard 5_ELC_Processes" xfId="693" xr:uid="{27838859-D9D3-4834-A9BA-1BEC1D4A6918}"/>
+    <cellStyle name="Standard 6" xfId="694" xr:uid="{582D7A5F-0EB8-4630-9B71-EF5719C08972}"/>
+    <cellStyle name="Standard 6 2" xfId="695" xr:uid="{AE7D0174-52CA-4E4C-93C0-FF211A9C8489}"/>
+    <cellStyle name="Standard 7" xfId="696" xr:uid="{C3387355-0254-4491-8FB4-574D9242FAA6}"/>
+    <cellStyle name="Standard 8" xfId="697" xr:uid="{EBD058B8-3B0C-4643-94A9-C316DCB52A92}"/>
+    <cellStyle name="Standard 8 2" xfId="698" xr:uid="{947A7492-5EF4-4B91-ABBB-1DC13EC97748}"/>
+    <cellStyle name="Standard 8 3" xfId="699" xr:uid="{88179BE8-EC1B-4C3F-9837-B7CA3E7AC31F}"/>
+    <cellStyle name="Standard 9" xfId="700" xr:uid="{869966C8-975D-4272-904D-266E871E09B5}"/>
+    <cellStyle name="Standard 9 2" xfId="701" xr:uid="{8D1FAB9A-99FA-4ACC-9EAF-3E3D0E3209FC}"/>
+    <cellStyle name="Standard 9 3" xfId="702" xr:uid="{44B39E70-F36C-46A2-A3F8-BCA9BC383BF4}"/>
+    <cellStyle name="Standard_Results_Pan_EU_OLGA_NUC" xfId="703" xr:uid="{1867CEEB-4FF2-4B2D-AA2C-9721E6F7B607}"/>
+    <cellStyle name="Style 21" xfId="704" xr:uid="{C8D7876C-7A75-4975-A6AF-F0E738A5CDED}"/>
+    <cellStyle name="Style 22" xfId="705" xr:uid="{C89E3537-2DF0-4F41-BA27-486D5E3BB793}"/>
+    <cellStyle name="Style 23" xfId="706" xr:uid="{E4A5B65A-D293-4BB6-A09B-D500777E983C}"/>
+    <cellStyle name="Style 24" xfId="707" xr:uid="{D798BF33-8FF5-482A-BC87-1450620AF106}"/>
+    <cellStyle name="Style 25" xfId="708" xr:uid="{48DDEC98-29DF-40E4-B4AA-2D750C858197}"/>
+    <cellStyle name="Style 26" xfId="709" xr:uid="{A4991D11-398F-48FB-A333-2B0CE14655E0}"/>
+    <cellStyle name="Style 27" xfId="710" xr:uid="{F21D6D73-02E9-43EC-A146-D3F1E05F48AC}"/>
+    <cellStyle name="Style 28" xfId="711" xr:uid="{E0E28635-1987-43D7-AA39-ABFD3E4C9558}"/>
+    <cellStyle name="Style 29" xfId="712" xr:uid="{60570E26-DC5B-4B45-9EF9-993346D87209}"/>
+    <cellStyle name="Style 30" xfId="713" xr:uid="{1F07B679-73BD-446A-986A-B88EDA679649}"/>
+    <cellStyle name="Style 31" xfId="714" xr:uid="{470CFCA3-A154-4570-B4B6-05371255D178}"/>
+    <cellStyle name="Style 32" xfId="715" xr:uid="{C8F32BCB-F3A9-4149-B6D2-F9B45CA455BB}"/>
+    <cellStyle name="Style 33" xfId="716" xr:uid="{EADCE599-984F-4CE0-A87F-796837A7D155}"/>
+    <cellStyle name="Style 34" xfId="717" xr:uid="{9F8F8476-C509-4B30-A62C-2839891F465E}"/>
+    <cellStyle name="Style 35" xfId="718" xr:uid="{3360C370-9BE2-4D11-9110-CE50C96FB645}"/>
+    <cellStyle name="Suma" xfId="296" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Suma 10" xfId="719" xr:uid="{6EB69C5B-0450-4DEE-9D07-0038E6CA7084}"/>
+    <cellStyle name="Suma 2" xfId="297" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Suma 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Suma 4" xfId="299" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Suma 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Suma 6" xfId="301" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Suma 7" xfId="302" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Suma 8" xfId="303" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Suma 9" xfId="720" xr:uid="{9B9D48AE-B80B-4A62-9B60-1A70B06AECB8}"/>
+    <cellStyle name="Tekst objaśnienia" xfId="304" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Tekst objaśnienia 10" xfId="721" xr:uid="{04192070-904E-49E9-9BC2-15C7C0FBC5E8}"/>
+    <cellStyle name="Tekst objaśnienia 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Tekst objaśnienia 3" xfId="306" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Tekst objaśnienia 4" xfId="307" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Tekst objaśnienia 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Tekst objaśnienia 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Tekst objaśnienia 7" xfId="310" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Tekst objaśnienia 8" xfId="311" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Tekst objaśnienia 9" xfId="722" xr:uid="{3E6E7849-C98F-46FA-B99E-431902C28D17}"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="312" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 10" xfId="723" xr:uid="{1AB778C2-8C09-453F-92C7-3AD04DC3940B}"/>
+    <cellStyle name="Tekst ostrzeżenia 2" xfId="313" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 3" xfId="314" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 4" xfId="315" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 5" xfId="316" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 6" xfId="317" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 7" xfId="318" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 8" xfId="319" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 9" xfId="724" xr:uid="{24837215-A721-4D9C-9D2E-CE5A83EDE810}"/>
+    <cellStyle name="Title" xfId="725" xr:uid="{C678B7CF-1C76-434A-B1B7-C238C8A978EE}"/>
+    <cellStyle name="Total" xfId="726" xr:uid="{C787BE34-C406-4918-9439-68EA5193AE5A}"/>
+    <cellStyle name="Total 10" xfId="727" xr:uid="{6FD677DF-F904-4851-94EF-D0751B392E59}"/>
+    <cellStyle name="Total 11" xfId="728" xr:uid="{A7E547C0-810B-42BE-AFD8-1635090AC114}"/>
+    <cellStyle name="Total 12" xfId="729" xr:uid="{4178C6BF-4C37-40E8-9898-AF34B4DB19E2}"/>
+    <cellStyle name="Total 13" xfId="730" xr:uid="{D86FC9D2-54E0-480E-9B7F-E3DF44AC47CE}"/>
+    <cellStyle name="Total 14" xfId="731" xr:uid="{35F0F7F0-57A1-48EA-93FC-04D1514AF625}"/>
+    <cellStyle name="Total 15" xfId="732" xr:uid="{584CCC21-2146-462D-8772-E495B4C37272}"/>
+    <cellStyle name="Total 16" xfId="733" xr:uid="{9D760C87-E691-43B7-A9FF-20CCD942222F}"/>
+    <cellStyle name="Total 17" xfId="734" xr:uid="{03AC586E-17CE-41F3-995A-75D70953FF05}"/>
+    <cellStyle name="Total 18" xfId="735" xr:uid="{47C6FA32-69A7-4785-9049-9094C3853C61}"/>
+    <cellStyle name="Total 19" xfId="736" xr:uid="{B2B9C37F-FC29-470F-AFBE-B5983CB53579}"/>
+    <cellStyle name="Total 2" xfId="737" xr:uid="{FCB0A274-3784-4E29-8C71-518746459224}"/>
+    <cellStyle name="Total 3" xfId="738" xr:uid="{74B3595A-80FE-43BE-93E8-747798168FE7}"/>
+    <cellStyle name="Total 4" xfId="739" xr:uid="{A265D858-C257-4033-B043-C93289E02D78}"/>
+    <cellStyle name="Total 5" xfId="740" xr:uid="{083CCD42-A3ED-49DA-B0CE-35BDD5954776}"/>
+    <cellStyle name="Total 6" xfId="741" xr:uid="{2A79C852-4232-433D-B795-C8996829447B}"/>
+    <cellStyle name="Total 7" xfId="742" xr:uid="{45C5C784-59C3-4458-9FFD-08D240CC239C}"/>
+    <cellStyle name="Total 8" xfId="743" xr:uid="{84D590DB-86DA-4FA0-B088-335A944FF886}"/>
+    <cellStyle name="Total 9" xfId="744" xr:uid="{2F97DE3F-C7C4-44D9-B043-DBEF1A5A4485}"/>
+    <cellStyle name="Tytuł" xfId="320" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Tytuł 2" xfId="745" xr:uid="{53B861BF-44F6-46D3-8F0B-D79C73B4476A}"/>
+    <cellStyle name="Tytuł 3" xfId="746" xr:uid="{4902602A-2030-4DC1-B899-CF4A0D12708A}"/>
+    <cellStyle name="Überschrift 1 2" xfId="747" xr:uid="{BD64E421-3357-4A7B-96C7-3DD612DE408B}"/>
+    <cellStyle name="Überschrift 2 2" xfId="748" xr:uid="{C8D333F1-F515-43EB-9046-904A737ECC35}"/>
+    <cellStyle name="Überschrift 3 2" xfId="749" xr:uid="{2CB8B177-5378-4C99-B0AB-7BD1BA590407}"/>
+    <cellStyle name="Überschrift 4 2" xfId="750" xr:uid="{A1C89D8B-CBF1-45F1-85A9-EB6D0706C254}"/>
+    <cellStyle name="Überschrift 5" xfId="751" xr:uid="{7B6FD97B-BAF8-433B-A156-C878E3C81DB1}"/>
+    <cellStyle name="Unprot" xfId="752" xr:uid="{D224DDDE-B348-4CE8-B416-86884D255034}"/>
+    <cellStyle name="Unprot$" xfId="753" xr:uid="{44670920-0DCE-455E-97D9-39B43D0760F2}"/>
+    <cellStyle name="Unprot_2010-09-24_LTP 2010_assumptions" xfId="754" xr:uid="{4D4F7F15-278D-4E5B-8D0D-FD41426A839C}"/>
+    <cellStyle name="Unprotect" xfId="755" xr:uid="{D6DF6CAC-67A0-442C-9031-B1857A99A72B}"/>
+    <cellStyle name="Uwaga" xfId="321" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Uwaga 10" xfId="756" xr:uid="{F48F4427-A977-475A-8571-0451CC81B475}"/>
+    <cellStyle name="Uwaga 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Uwaga 3" xfId="323" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Uwaga 4" xfId="324" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Uwaga 5" xfId="325" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Uwaga 6" xfId="326" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Uwaga 7" xfId="327" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Uwaga 8" xfId="328" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Uwaga 9" xfId="757" xr:uid="{FB756161-F04A-47CF-8465-5B44CEC886A9}"/>
+    <cellStyle name="Verknüpfte Zelle 2" xfId="758" xr:uid="{0B53FDAE-D82B-42EE-A5EE-870F481C8931}"/>
+    <cellStyle name="Währung 2" xfId="759" xr:uid="{7118CB5C-B88E-4157-A07A-1A183E6E60EC}"/>
+    <cellStyle name="Währung 2 2" xfId="760" xr:uid="{76F0AEEF-BFB0-48CF-95F3-A334548524F9}"/>
+    <cellStyle name="Warnender Text 2" xfId="761" xr:uid="{4C208629-72B6-4DDA-90F1-2E7B3E360032}"/>
+    <cellStyle name="Warning Text" xfId="762" xr:uid="{82F18755-38E8-49FC-9777-08A75A5E4E96}"/>
+    <cellStyle name="X10_Figs 21 dec" xfId="763" xr:uid="{B587D370-536A-45AB-82D1-394AE33DD56C}"/>
+    <cellStyle name="Zelle überprüfen 2" xfId="764" xr:uid="{25DAB5F7-17A1-4901-B70A-D9A82A582073}"/>
+    <cellStyle name="Złe" xfId="329" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Złe 10" xfId="765" xr:uid="{2D79D911-599D-44DC-846A-72CABC507363}"/>
+    <cellStyle name="Złe 2" xfId="330" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Złe 3" xfId="331" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Złe 4" xfId="332" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Złe 5" xfId="333" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Złe 6" xfId="334" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Złe 7" xfId="335" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Złe 8" xfId="336" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Złe 9" xfId="766" xr:uid="{6FF8222D-4F55-43F3-A745-6323EC5B29A9}"/>
+    <cellStyle name="Обычный_2++_CRFReport-template" xfId="767" xr:uid="{9781816D-902A-4D47-9379-B07357EF1DDA}"/>
+    <cellStyle name="已访问的超链接" xfId="337" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3570,7 +5156,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4461,7 +6047,7 @@
       <c r="F13" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -4472,7 +6058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -4756,10 +6342,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4947,12 +6533,138 @@
       <c r="D19" s="89"/>
       <c r="E19" s="90"/>
     </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="130" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="26.25" thickBot="1">
+      <c r="B24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="129" t="str">
+        <f>$B$18</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C25" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="125">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="129" t="str">
+        <f t="shared" ref="B26:B32" si="0">$B$18</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C26" s="127" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="124">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="129" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="125">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="129" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C28" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="124">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="129" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C29" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="125">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="129" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C30" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="124">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="129" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C31" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="125">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="13.5" thickBot="1">
+      <c r="B32" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C32" s="126" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="123">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="122">
+        <f>SUM(D25:D32)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDEFA80-1050-426D-A293-3E21E117F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D9DB68-0C65-42DA-9270-2F13995FE092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6344,8 +6344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D9DB68-0C65-42DA-9270-2F13995FE092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C72AF9-3F42-4C98-993A-0F862D00A4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3607,7 +3607,7 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="66" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3877,7 +3877,6 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="12" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="28" borderId="11" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6344,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6518,7 +6517,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="62" t="str">
-        <f>SEC_Comm!C8</f>
+        <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
       <c r="C18" s="85">
@@ -6539,13 +6538,13 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="130" t="s">
+      <c r="D23" s="129" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6557,8 +6556,8 @@
       <c r="D24" s="121"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="129" t="str">
-        <f>$B$18</f>
+      <c r="B25" s="62" t="str">
+        <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
       <c r="C25" s="128" t="s">
@@ -6569,8 +6568,8 @@
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="129" t="str">
-        <f t="shared" ref="B26:B32" si="0">$B$18</f>
+      <c r="B26" s="62" t="str">
+        <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
       <c r="C26" s="127" t="s">
@@ -6581,8 +6580,8 @@
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="129" t="str">
-        <f t="shared" si="0"/>
+      <c r="B27" s="62" t="str">
+        <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
       <c r="C27" s="128" t="s">
@@ -6593,8 +6592,8 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="129" t="str">
-        <f t="shared" si="0"/>
+      <c r="B28" s="62" t="str">
+        <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
       <c r="C28" s="127" t="s">
@@ -6605,8 +6604,8 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="129" t="str">
-        <f t="shared" si="0"/>
+      <c r="B29" s="62" t="str">
+        <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
       <c r="C29" s="128" t="s">
@@ -6617,8 +6616,8 @@
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="129" t="str">
-        <f t="shared" si="0"/>
+      <c r="B30" s="62" t="str">
+        <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
       <c r="C30" s="127" t="s">
@@ -6629,8 +6628,8 @@
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="129" t="str">
-        <f t="shared" si="0"/>
+      <c r="B31" s="62" t="str">
+        <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
       <c r="C31" s="128" t="s">
@@ -6641,8 +6640,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B32" s="68" t="str">
-        <f t="shared" si="0"/>
+      <c r="B32" s="62" t="str">
+        <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
       <c r="C32" s="126" t="s">

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C72AF9-3F42-4C98-993A-0F862D00A4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA819651-AE6A-4199-BFC4-89F66E580DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1266,7 +1266,7 @@
     <t>2S2W2D</t>
   </si>
   <si>
-    <t>TimesSlice</t>
+    <t>TimeSlice</t>
   </si>
 </sst>
 </file>
@@ -6344,7 +6344,7 @@
   <dimension ref="B2:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\2023.12.06 - Very Simple Times Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IERP\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA819651-AE6A-4199-BFC4-89F66E580DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1024B199-351E-4638-9320-42388EBEB28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1234,39 +1234,6 @@
   </si>
   <si>
     <t>Solar</t>
-  </si>
-  <si>
-    <t>~FI_T:</t>
-  </si>
-  <si>
-    <t>COM_FR</t>
-  </si>
-  <si>
-    <t>1S1W1D</t>
-  </si>
-  <si>
-    <t>1S1W2D</t>
-  </si>
-  <si>
-    <t>1S2W1D</t>
-  </si>
-  <si>
-    <t>1S2W2D</t>
-  </si>
-  <si>
-    <t>2S1W1D</t>
-  </si>
-  <si>
-    <t>2S1W2D</t>
-  </si>
-  <si>
-    <t>2S2W1D</t>
-  </si>
-  <si>
-    <t>2S2W2D</t>
-  </si>
-  <si>
-    <t>TimeSlice</t>
   </si>
 </sst>
 </file>
@@ -1279,22 +1246,22 @@
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
-    <numFmt numFmtId="183" formatCode="#,##0."/>
-    <numFmt numFmtId="184" formatCode="&quot;$&quot;#."/>
-    <numFmt numFmtId="185" formatCode="m/d/yy\ h:mm"/>
-    <numFmt numFmtId="186" formatCode="#.00"/>
-    <numFmt numFmtId="187" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="188" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="189" formatCode="yyyy"/>
-    <numFmt numFmtId="190" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0."/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#."/>
+    <numFmt numFmtId="177" formatCode="m/d/yy\ h:mm"/>
+    <numFmt numFmtId="178" formatCode="#.00"/>
+    <numFmt numFmtId="179" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="181" formatCode="yyyy"/>
+    <numFmt numFmtId="182" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="94">
     <font>
@@ -3003,7 +2970,7 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="6" fillId="37" borderId="28">
+    <xf numFmtId="174" fontId="6" fillId="37" borderId="28">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3030,15 +2997,15 @@
     <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="69" fillId="0" borderId="0">
+    <xf numFmtId="175" fontId="69" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="69" fillId="0" borderId="0">
+    <xf numFmtId="175" fontId="69" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="69" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="69" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3048,24 +3015,24 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="69" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="69" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0"/>
@@ -3226,7 +3193,7 @@
     </xf>
     <xf numFmtId="40" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3489,13 +3456,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -3507,7 +3474,7 @@
     <xf numFmtId="17" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3595,11 +3562,11 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="87" fillId="0" borderId="0">
+    <xf numFmtId="182" fontId="87" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3607,7 +3574,7 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="66" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3866,25 +3833,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="35" borderId="12" xfId="573" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="35" borderId="0" xfId="573" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="34" borderId="0" xfId="573" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="12" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="11" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="11" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="10" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="768">
@@ -6341,10 +6289,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
-  <dimension ref="B2:K34"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6531,131 +6479,6 @@
       <c r="C19" s="89"/>
       <c r="D19" s="89"/>
       <c r="E19" s="90"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="130" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="26.25" thickBot="1">
-      <c r="B24" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="62" t="str">
-        <f>SEC_Comm!$C$8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C25" s="128" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="125">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="62" t="str">
-        <f>SEC_Comm!$C$8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C26" s="127" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="124">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="62" t="str">
-        <f>SEC_Comm!$C$8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C27" s="128" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="125">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="62" t="str">
-        <f>SEC_Comm!$C$8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C28" s="127" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="124">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="62" t="str">
-        <f>SEC_Comm!$C$8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C29" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="125">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="62" t="str">
-        <f>SEC_Comm!$C$8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C30" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="124">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="62" t="str">
-        <f>SEC_Comm!$C$8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C31" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="125">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B32" s="62" t="str">
-        <f>SEC_Comm!$C$8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C32" s="126" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="123">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="122">
-        <f>SUM(D25:D32)</f>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6782,6 +6605,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -6925,22 +6763,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6956,28 +6803,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>